--- a/processing/datapoints.xlsx
+++ b/processing/datapoints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,27 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="327">
   <si>
     <t xml:space="preserve">Steynberg Gallery</t>
   </si>
   <si>
-    <t xml:space="preserve">art_gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">point_of_interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">establishment</t>
+    <t xml:space="preserve">Art Gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point Of Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establishment</t>
   </si>
   <si>
     <t xml:space="preserve">Hands Gallery</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">BlackHorse Espresso &amp; Bakery</t>
   </si>
   <si>
-    <t xml:space="preserve">bakery</t>
+    <t xml:space="preserve">Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">Frame Works</t>
@@ -64,13 +64,13 @@
     <t xml:space="preserve">Copper Cafe</t>
   </si>
   <si>
-    <t xml:space="preserve">restaurant</t>
+    <t xml:space="preserve">Restaurant</t>
   </si>
   <si>
     <t xml:space="preserve">Creature Comfortz</t>
   </si>
   <si>
-    <t xml:space="preserve">aquarium</t>
+    <t xml:space="preserve">Aquarium</t>
   </si>
   <si>
     <t xml:space="preserve">Art Central</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Laddon Anne</t>
   </si>
   <si>
-    <t xml:space="preserve">House of Bread</t>
+    <t xml:space="preserve">House Of Bread</t>
   </si>
   <si>
     <t xml:space="preserve">LEFT FIELD</t>
@@ -88,10 +88,10 @@
     <t xml:space="preserve">Matt Clark Tile &amp; Stone</t>
   </si>
   <si>
-    <t xml:space="preserve">general_contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home_goods_store</t>
+    <t xml:space="preserve">General Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Goods Store</t>
   </si>
   <si>
     <t xml:space="preserve">The John Landon Gallery</t>
@@ -124,25 +124,25 @@
     <t xml:space="preserve">Laguna Grill</t>
   </si>
   <si>
-    <t xml:space="preserve">bar</t>
+    <t xml:space="preserve">Bar</t>
   </si>
   <si>
     <t xml:space="preserve">Luna Red</t>
   </si>
   <si>
-    <t xml:space="preserve">Emily’s Cinnamon Rolls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House of Bagels Central Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tahoe Joe's</t>
+    <t xml:space="preserve">Emily’S Cinnamon Rolls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Of Bagels Central Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tahoe Joe'S</t>
   </si>
   <si>
     <t xml:space="preserve">Panera Bread</t>
   </si>
   <si>
-    <t xml:space="preserve">meal_takeaway</t>
+    <t xml:space="preserve">Meal Takeaway</t>
   </si>
   <si>
     <t xml:space="preserve">Bliss Cafe</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">The Claassen Gallery</t>
   </si>
   <si>
-    <t xml:space="preserve">clothing_store</t>
+    <t xml:space="preserve">Clothing Store</t>
   </si>
   <si>
     <t xml:space="preserve">Drew Davis Fine Art</t>
@@ -172,16 +172,16 @@
     <t xml:space="preserve">Novo Restaurant &amp; Lounge</t>
   </si>
   <si>
-    <t xml:space="preserve">night_club</t>
+    <t xml:space="preserve">Night Club</t>
   </si>
   <si>
     <t xml:space="preserve">Cloud 9 Smoke Shop</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirits of Africa Gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sally Loo's Wholesome Cafe</t>
+    <t xml:space="preserve">Spirits Of Africa Gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sally Loo'S Wholesome Cafe</t>
   </si>
   <si>
     <t xml:space="preserve">Blackhorse Espresso &amp; Bakery</t>
@@ -193,10 +193,10 @@
     <t xml:space="preserve">Hempshak</t>
   </si>
   <si>
-    <t xml:space="preserve">jewelry_store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giuseppe's Cucina Rustica</t>
+    <t xml:space="preserve">Jewelry Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giuseppe'S Cucina Rustica</t>
   </si>
   <si>
     <t xml:space="preserve">Cerro Caliente Cellars</t>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">Central Coast Brewing</t>
   </si>
   <si>
-    <t xml:space="preserve">liquor_store</t>
+    <t xml:space="preserve">Liquor Store</t>
   </si>
   <si>
     <t xml:space="preserve">Koberl At Blue</t>
@@ -226,28 +226,28 @@
     <t xml:space="preserve">Sidecar</t>
   </si>
   <si>
-    <t xml:space="preserve">Mo's Smokehouse BBQ</t>
+    <t xml:space="preserve">Mo'S Smokehouse BBQ</t>
   </si>
   <si>
     <t xml:space="preserve">Black Sheep Bar &amp; Grill</t>
   </si>
   <si>
-    <t xml:space="preserve">McDonald's</t>
+    <t xml:space="preserve">McDonald'S</t>
   </si>
   <si>
     <t xml:space="preserve">Phoenix Books</t>
   </si>
   <si>
-    <t xml:space="preserve">book_store</t>
+    <t xml:space="preserve">Book Store</t>
   </si>
   <si>
     <t xml:space="preserve">Del Monte Cafe</t>
   </si>
   <si>
-    <t xml:space="preserve">Peet's Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gennaro's Grill &amp; Garden</t>
+    <t xml:space="preserve">Peet'S Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gennaro'S Grill &amp; Garden</t>
   </si>
   <si>
     <t xml:space="preserve">Big Sky Cafe</t>
@@ -256,25 +256,28 @@
     <t xml:space="preserve">Frog &amp; Peach Pub</t>
   </si>
   <si>
-    <t xml:space="preserve">Spike's Pub</t>
+    <t xml:space="preserve">Spike'S Pub</t>
   </si>
   <si>
     <t xml:space="preserve">Mustang Lanes</t>
   </si>
   <si>
-    <t xml:space="preserve">bowling_alley</t>
+    <t xml:space="preserve">Bowling Alley</t>
   </si>
   <si>
     <t xml:space="preserve">Kindred Books</t>
   </si>
   <si>
+    <t xml:space="preserve">Point Of IntErest</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rib Squeak Inc</t>
   </si>
   <si>
     <t xml:space="preserve">Barnes &amp; Noble</t>
   </si>
   <si>
-    <t xml:space="preserve">electronics_store</t>
+    <t xml:space="preserve">Electronics Store</t>
   </si>
   <si>
     <t xml:space="preserve">Starbucks</t>
@@ -283,7 +286,7 @@
     <t xml:space="preserve">Coastal Peaks Coffee</t>
   </si>
   <si>
-    <t xml:space="preserve">McCarthy's Irish Pub</t>
+    <t xml:space="preserve">McCarthy'S Irish Pub</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee Diva</t>
@@ -307,7 +310,7 @@
     <t xml:space="preserve">Boo Boo Records Inc</t>
   </si>
   <si>
-    <t xml:space="preserve">Linnaea's Cafe</t>
+    <t xml:space="preserve">Linnaea'S Cafe</t>
   </si>
   <si>
     <t xml:space="preserve">The Parable Group</t>
@@ -316,7 +319,7 @@
     <t xml:space="preserve">Captain Nemo Games &amp; Comics</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Cain's Comics and Games</t>
+    <t xml:space="preserve">Dr. Cain'S Comics And Games</t>
   </si>
   <si>
     <t xml:space="preserve">Beautiful Feet Books</t>
@@ -328,28 +331,28 @@
     <t xml:space="preserve">Urban Outfitters</t>
   </si>
   <si>
-    <t xml:space="preserve">shoe_store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let's Party halloween</t>
+    <t xml:space="preserve">Shoe Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let'S Party Halloween</t>
   </si>
   <si>
     <t xml:space="preserve">Target</t>
   </si>
   <si>
-    <t xml:space="preserve">department_store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grocery_or_supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">furniture_store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Men's Wearhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross Dress for Less</t>
+    <t xml:space="preserve">Department Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocery Or Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furniture Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men'S Wearhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross Dress For Less</t>
   </si>
   <si>
     <t xml:space="preserve">The Sock Drawer</t>
@@ -376,13 +379,13 @@
     <t xml:space="preserve">Abercrombie &amp; Fitch</t>
   </si>
   <si>
-    <t xml:space="preserve">Kohl's San Luis Obispo</t>
+    <t xml:space="preserve">Kohl'S San Luis Obispo</t>
   </si>
   <si>
     <t xml:space="preserve">HomeGoods</t>
   </si>
   <si>
-    <t xml:space="preserve">lodging</t>
+    <t xml:space="preserve">Lodging</t>
   </si>
   <si>
     <t xml:space="preserve">Costco Wholesale</t>
@@ -391,19 +394,16 @@
     <t xml:space="preserve">Bed Bath &amp; Beyond</t>
   </si>
   <si>
-    <t xml:space="preserve">Bikram Yoga of San Luis Obispo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Coast Gymnastics Sports Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inc.</t>
+    <t xml:space="preserve">Bikram Yoga Of San Luis Obispo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Coast Gymnastics Sports Center Inc.</t>
   </si>
   <si>
     <t xml:space="preserve">GenoaGraphix</t>
@@ -424,7 +424,7 @@
     <t xml:space="preserve">Club 24 Inc</t>
   </si>
   <si>
-    <t xml:space="preserve">Equilibrium Fitness for Women</t>
+    <t xml:space="preserve">Equilibrium Fitness For Women</t>
   </si>
   <si>
     <t xml:space="preserve">Paragon Brazilian Jiu-Jitsu San Luis Obispo</t>
@@ -445,13 +445,13 @@
     <t xml:space="preserve">Tuesday Morning</t>
   </si>
   <si>
-    <t xml:space="preserve">pet_store</t>
+    <t xml:space="preserve">Pet Store</t>
   </si>
   <si>
     <t xml:space="preserve">GYROTONIC® San Luis Obispo</t>
   </si>
   <si>
-    <t xml:space="preserve">lululemon</t>
+    <t xml:space="preserve">Lululemon</t>
   </si>
   <si>
     <t xml:space="preserve">Performance Athletics</t>
@@ -460,13 +460,13 @@
     <t xml:space="preserve">Balance A Pilates Studio</t>
   </si>
   <si>
-    <t xml:space="preserve">The Oxygen Studio mild Hyperbaric Oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hair_care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doctor</t>
+    <t xml:space="preserve">The Oxygen Studio Mild Hyperbaric Oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hair Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctor</t>
   </si>
   <si>
     <t xml:space="preserve">SLO Yoga Center</t>
@@ -481,13 +481,13 @@
     <t xml:space="preserve">Central Coast Krav Maga</t>
   </si>
   <si>
-    <t xml:space="preserve">Beverly's Fabric &amp; Crafts</t>
+    <t xml:space="preserve">Beverly'S Fabric &amp; Crafts</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Obispo Library</t>
   </si>
   <si>
-    <t xml:space="preserve">library</t>
+    <t xml:space="preserve">Library</t>
   </si>
   <si>
     <t xml:space="preserve">Wine Shed</t>
@@ -499,10 +499,7 @@
     <t xml:space="preserve">Robert E. Kennedy Library</t>
   </si>
   <si>
-    <t xml:space="preserve">California Polytechnic State University 1 Grand Ave San Luis Obispo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USA</t>
+    <t xml:space="preserve">California Polytechnic State University 1 Grand Ave San Luis Obispo USA</t>
   </si>
   <si>
     <t xml:space="preserve">The Station</t>
@@ -523,19 +520,19 @@
     <t xml:space="preserve">Broad Street Ribline</t>
   </si>
   <si>
-    <t xml:space="preserve">meal_delivery</t>
+    <t xml:space="preserve">Meal Delivery</t>
   </si>
   <si>
     <t xml:space="preserve">Blockbuster Express</t>
   </si>
   <si>
-    <t xml:space="preserve">movie_rental</t>
+    <t xml:space="preserve">Movie Rental</t>
   </si>
   <si>
     <t xml:space="preserve">The Habit Burger Grill</t>
   </si>
   <si>
-    <t xml:space="preserve">Gino's Pizza SLO</t>
+    <t xml:space="preserve">Gino'S Pizza SLO</t>
   </si>
   <si>
     <t xml:space="preserve">Which Wich Superior Sandwiches</t>
@@ -544,10 +541,10 @@
     <t xml:space="preserve">Downtown Centre Cinemas</t>
   </si>
   <si>
-    <t xml:space="preserve">movie_theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother's Tavern</t>
+    <t xml:space="preserve">Movie Theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother'S Tavern</t>
   </si>
   <si>
     <t xml:space="preserve">SLO Provisions</t>
@@ -562,7 +559,7 @@
     <t xml:space="preserve">Round Table Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">Mama's Meatball</t>
+    <t xml:space="preserve">Mama'S Meatball</t>
   </si>
   <si>
     <t xml:space="preserve">Sunset Drive-In</t>
@@ -574,10 +571,10 @@
     <t xml:space="preserve">Dream Dinners</t>
   </si>
   <si>
-    <t xml:space="preserve">Kona's Deli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domino's Pizza</t>
+    <t xml:space="preserve">Kona'S Deli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domino'S Pizza</t>
   </si>
   <si>
     <t xml:space="preserve">Taco Bell</t>
@@ -595,7 +592,7 @@
     <t xml:space="preserve">Costco Food Court</t>
   </si>
   <si>
-    <t xml:space="preserve">Jersey Mike's Subs</t>
+    <t xml:space="preserve">Jersey Mike'S Subs</t>
   </si>
   <si>
     <t xml:space="preserve">Foremost Wine Company</t>
@@ -604,7 +601,7 @@
     <t xml:space="preserve">San Luis Obispo Railroad Museum</t>
   </si>
   <si>
-    <t xml:space="preserve">museum</t>
+    <t xml:space="preserve">Museum</t>
   </si>
   <si>
     <t xml:space="preserve">Palm Theatre</t>
@@ -613,7 +610,7 @@
     <t xml:space="preserve">Buffalo Wild Wings</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Obispo Museum of Art</t>
+    <t xml:space="preserve">San Luis Obispo Museum Of Art</t>
   </si>
   <si>
     <t xml:space="preserve">San Diego Museum Of Arts</t>
@@ -622,7 +619,7 @@
     <t xml:space="preserve">San Luis Obispo County Historical Museum</t>
   </si>
   <si>
-    <t xml:space="preserve">History Center of San Luis Obispo County</t>
+    <t xml:space="preserve">History Center Of San Luis Obispo County</t>
   </si>
   <si>
     <t xml:space="preserve">Fremont Theater</t>
@@ -634,7 +631,7 @@
     <t xml:space="preserve">Cuesta Park</t>
   </si>
   <si>
-    <t xml:space="preserve">park</t>
+    <t xml:space="preserve">Park</t>
   </si>
   <si>
     <t xml:space="preserve">Pet Boutique</t>
@@ -655,7 +652,7 @@
     <t xml:space="preserve">Leaning Pine Arboretum</t>
   </si>
   <si>
-    <t xml:space="preserve">Bishop's Foothill Trailhead</t>
+    <t xml:space="preserve">Bishop'S Foothill Trailhead</t>
   </si>
   <si>
     <t xml:space="preserve">Santa Rosa Park</t>
@@ -670,10 +667,7 @@
     <t xml:space="preserve">San Luis Obispo Home Show</t>
   </si>
   <si>
-    <t xml:space="preserve">Dexter Lawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cal Poly</t>
+    <t xml:space="preserve">Dexter Lawn Cal Poly</t>
   </si>
   <si>
     <t xml:space="preserve">O'Neill Green</t>
@@ -697,7 +691,7 @@
     <t xml:space="preserve">Tropics</t>
   </si>
   <si>
-    <t xml:space="preserve">PetDoors.com</t>
+    <t xml:space="preserve">PetDoors.Com</t>
   </si>
   <si>
     <t xml:space="preserve">Thai Palace</t>
@@ -706,13 +700,13 @@
     <t xml:space="preserve">Migrant Education Program</t>
   </si>
   <si>
-    <t xml:space="preserve">school</t>
+    <t xml:space="preserve">School</t>
   </si>
   <si>
     <t xml:space="preserve">SLO Classical Academy High School</t>
   </si>
   <si>
-    <t xml:space="preserve">ShoeSurfing.com</t>
+    <t xml:space="preserve">ShoeSurfing.Com</t>
   </si>
   <si>
     <t xml:space="preserve">SUBWAY®Restaurants</t>
@@ -727,13 +721,13 @@
     <t xml:space="preserve">Cal Poly Ticket Office</t>
   </si>
   <si>
-    <t xml:space="preserve">university</t>
+    <t xml:space="preserve">University</t>
   </si>
   <si>
     <t xml:space="preserve">The Laureate School</t>
   </si>
   <si>
-    <t xml:space="preserve">Mike's Shoes</t>
+    <t xml:space="preserve">Mike'S Shoes</t>
   </si>
   <si>
     <t xml:space="preserve">G-Brothers Smokehouse</t>
@@ -754,7 +748,7 @@
     <t xml:space="preserve">Mission College Preparatory Catholic High School</t>
   </si>
   <si>
-    <t xml:space="preserve">Woodstock's Pizza SLO</t>
+    <t xml:space="preserve">Woodstock'S Pizza SLO</t>
   </si>
   <si>
     <t xml:space="preserve">Old Mission Pre-School</t>
@@ -766,7 +760,7 @@
     <t xml:space="preserve">Olive Grove Charter School</t>
   </si>
   <si>
-    <t xml:space="preserve">Child Development Resource Center of the Central Coast</t>
+    <t xml:space="preserve">Child Development Resource Center Of The Central Coast</t>
   </si>
   <si>
     <t xml:space="preserve">Foothill Preschool-Infant Care</t>
@@ -778,7 +772,7 @@
     <t xml:space="preserve">Pacific Beach High School</t>
   </si>
   <si>
-    <t xml:space="preserve">School of Martial Arts</t>
+    <t xml:space="preserve">School Of Martial Arts</t>
   </si>
   <si>
     <t xml:space="preserve">Sinsheimer Elementary School</t>
@@ -793,7 +787,7 @@
     <t xml:space="preserve">C. L. Smith Elementary School</t>
   </si>
   <si>
-    <t xml:space="preserve">threadHUB</t>
+    <t xml:space="preserve">ThreadHUB</t>
   </si>
   <si>
     <t xml:space="preserve">Hawthorne Elementary School</t>
@@ -808,7 +802,7 @@
     <t xml:space="preserve">San Luis Obispo High School</t>
   </si>
   <si>
-    <t xml:space="preserve">Bishop's Peak Elementary School</t>
+    <t xml:space="preserve">Bishop'S Peak Elementary School</t>
   </si>
   <si>
     <t xml:space="preserve">B Bella LLC</t>
@@ -820,13 +814,13 @@
     <t xml:space="preserve">Lemos</t>
   </si>
   <si>
-    <t xml:space="preserve">shopping_mall</t>
+    <t xml:space="preserve">Shopping Mall</t>
   </si>
   <si>
     <t xml:space="preserve">Northwestboots</t>
   </si>
   <si>
-    <t xml:space="preserve">SheepskinShoes.com</t>
+    <t xml:space="preserve">SheepskinShoes.Com</t>
   </si>
   <si>
     <t xml:space="preserve">United Methodist Children Center</t>
@@ -847,7 +841,7 @@
     <t xml:space="preserve">Takken Enterprises Wherehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">Takkens - Shoes | Boots | Sandals</t>
+    <t xml:space="preserve">Takkens - Shoes  Boots  Sandals</t>
   </si>
   <si>
     <t xml:space="preserve">Sale Shoe Shack</t>
@@ -892,7 +886,7 @@
     <t xml:space="preserve">Max Relax - Chinese Reflexology &amp; Accupressure</t>
   </si>
   <si>
-    <t xml:space="preserve">spa</t>
+    <t xml:space="preserve">Spa</t>
   </si>
   <si>
     <t xml:space="preserve">Laurus College - San Luis Obispo</t>
@@ -904,13 +898,13 @@
     <t xml:space="preserve">Mind Spa Hypnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Annie Laurie Whole Body Therapy and SLO Massage</t>
+    <t xml:space="preserve">Annie Laurie Whole Body Therapy And SLO Massage</t>
   </si>
   <si>
     <t xml:space="preserve">Foothill Plaza Shopping Center</t>
   </si>
   <si>
-    <t xml:space="preserve">premise</t>
+    <t xml:space="preserve">Premise</t>
   </si>
   <si>
     <t xml:space="preserve">Rejuvenation Medical Skincare</t>
@@ -919,16 +913,16 @@
     <t xml:space="preserve">Sinsheimer Park Baseball Stdm</t>
   </si>
   <si>
-    <t xml:space="preserve">stadium</t>
+    <t xml:space="preserve">Stadium</t>
   </si>
   <si>
     <t xml:space="preserve">Bob Janssen Field</t>
   </si>
   <si>
-    <t xml:space="preserve">Face to Face</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signs of Success</t>
+    <t xml:space="preserve">Face To Face</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signs Of Success</t>
   </si>
   <si>
     <t xml:space="preserve">Rose Garden Inn</t>
@@ -937,7 +931,7 @@
     <t xml:space="preserve">Spoke SLO</t>
   </si>
   <si>
-    <t xml:space="preserve">beauty_salon</t>
+    <t xml:space="preserve">Beauty Salon</t>
   </si>
   <si>
     <t xml:space="preserve">Barefoot MomEase Wellness Spa</t>
@@ -946,10 +940,7 @@
     <t xml:space="preserve">Baggett Stadium</t>
   </si>
   <si>
-    <t xml:space="preserve">Department Chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computer Science and Software Engineering</t>
+    <t xml:space="preserve">Department Chair Computer Science And Software Engineering</t>
   </si>
   <si>
     <t xml:space="preserve">Alex G. Spanos Stadium</t>
@@ -976,7 +967,7 @@
     <t xml:space="preserve">41A Brown Engineering</t>
   </si>
   <si>
-    <t xml:space="preserve">University of La Verne Central</t>
+    <t xml:space="preserve">University Of La Verne Central</t>
   </si>
   <si>
     <t xml:space="preserve">Trinity Hall</t>
@@ -1107,18 +1098,18 @@
   </sheetPr>
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4336734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="21.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.1785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7142857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="21.3010204081633"/>
     <col collapsed="false" hidden="false" max="10" min="6" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2409,7 +2400,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>6</v>
@@ -2417,7 +2408,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>72</v>
@@ -2434,13 +2425,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>23</v>
@@ -2457,7 +2448,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>2</v>
@@ -2477,7 +2468,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>2</v>
@@ -2497,7 +2488,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>34</v>
@@ -2511,7 +2502,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>2</v>
@@ -2531,7 +2522,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>2</v>
@@ -2551,7 +2542,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>72</v>
@@ -2571,7 +2562,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>2</v>
@@ -2591,13 +2582,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>72</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>45</v>
@@ -2617,7 +2608,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>2</v>
@@ -2640,7 +2631,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>2</v>
@@ -2660,7 +2651,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>2</v>
@@ -2680,13 +2671,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>72</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>45</v>
@@ -2706,7 +2697,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>2</v>
@@ -2726,7 +2717,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>2</v>
@@ -2746,7 +2737,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>72</v>
@@ -2763,7 +2754,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>72</v>
@@ -2783,7 +2774,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>72</v>
@@ -2800,7 +2791,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>72</v>
@@ -2817,7 +2808,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>45</v>
@@ -2837,16 +2828,16 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>23</v>
@@ -2863,7 +2854,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>45</v>
@@ -2883,16 +2874,16 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>3</v>
@@ -2901,7 +2892,7 @@
         <v>45</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>23</v>
@@ -2918,7 +2909,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>45</v>
@@ -2935,16 +2926,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>4</v>
@@ -2958,7 +2949,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>45</v>
@@ -2975,10 +2966,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>45</v>
@@ -2995,7 +2986,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>45</v>
@@ -3015,7 +3006,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>45</v>
@@ -3032,7 +3023,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>45</v>
@@ -3049,7 +3040,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>45</v>
@@ -3066,10 +3057,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>57</v>
@@ -3089,7 +3080,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>45</v>
@@ -3106,10 +3097,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>4</v>
@@ -3123,16 +3114,16 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>23</v>
@@ -3149,10 +3140,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>4</v>
@@ -3166,13 +3157,13 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>23</v>
@@ -3189,13 +3180,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>5</v>
@@ -3206,21 +3197,18 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="D106" s="0" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3246,10 +3234,10 @@
         <v>129</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>5</v>
@@ -3263,10 +3251,10 @@
         <v>130</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>5</v>
@@ -3280,10 +3268,10 @@
         <v>131</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>5</v>
@@ -3297,10 +3285,10 @@
         <v>132</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>5</v>
@@ -3314,10 +3302,10 @@
         <v>133</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>5</v>
@@ -3331,10 +3319,10 @@
         <v>134</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>5</v>
@@ -3348,10 +3336,10 @@
         <v>135</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>5</v>
@@ -3368,7 +3356,7 @@
         <v>45</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>23</v>
@@ -3388,10 +3376,10 @@
         <v>137</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>5</v>
@@ -3405,10 +3393,10 @@
         <v>138</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>5</v>
@@ -3422,10 +3410,10 @@
         <v>139</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>5</v>
@@ -3445,16 +3433,16 @@
         <v>141</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>3</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>4</v>
@@ -3471,10 +3459,10 @@
         <v>142</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>5</v>
@@ -3488,13 +3476,13 @@
         <v>143</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>45</v>
@@ -3514,10 +3502,10 @@
         <v>144</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>5</v>
@@ -3531,10 +3519,10 @@
         <v>145</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>5</v>
@@ -3548,7 +3536,7 @@
         <v>146</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>147</v>
@@ -3557,7 +3545,7 @@
         <v>148</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>4</v>
@@ -3574,10 +3562,10 @@
         <v>149</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>5</v>
@@ -3608,10 +3596,10 @@
         <v>151</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>5</v>
@@ -3625,10 +3613,10 @@
         <v>152</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>4</v>
@@ -3727,21 +3715,18 @@
         <v>159</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>2</v>
@@ -3767,7 +3752,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>155</v>
@@ -3781,7 +3766,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>34</v>
@@ -3804,7 +3789,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>14</v>
@@ -3824,7 +3809,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>40</v>
@@ -3844,10 +3829,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>167</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>14</v>
@@ -3864,10 +3849,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B141" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>4</v>
@@ -3881,7 +3866,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>40</v>
@@ -3901,10 +3886,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>14</v>
@@ -3921,7 +3906,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>40</v>
@@ -3941,13 +3926,13 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B145" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="C145" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>23</v>
@@ -3964,7 +3949,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>14</v>
@@ -3984,7 +3969,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>2</v>
@@ -4007,10 +3992,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C148" s="0" t="s">
         <v>40</v>
@@ -4033,10 +4018,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>40</v>
@@ -4056,10 +4041,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>40</v>
@@ -4079,7 +4064,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>40</v>
@@ -4099,13 +4084,13 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>23</v>
@@ -4122,7 +4107,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>40</v>
@@ -4142,7 +4127,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>40</v>
@@ -4162,7 +4147,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>40</v>
@@ -4185,10 +4170,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>40</v>
@@ -4208,7 +4193,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>40</v>
@@ -4228,10 +4213,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C158" s="0" t="s">
         <v>5</v>
@@ -4242,7 +4227,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>40</v>
@@ -4262,7 +4247,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>40</v>
@@ -4282,7 +4267,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>40</v>
@@ -4302,7 +4287,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>40</v>
@@ -4322,7 +4307,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>40</v>
@@ -4345,7 +4330,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>34</v>
@@ -4368,10 +4353,10 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B165" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="C165" s="0" t="s">
         <v>5</v>
@@ -4382,13 +4367,13 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>23</v>
@@ -4405,7 +4390,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>40</v>
@@ -4428,10 +4413,10 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>5</v>
@@ -4442,10 +4427,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C169" s="0" t="s">
         <v>5</v>
@@ -4456,10 +4441,10 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C170" s="0" t="s">
         <v>5</v>
@@ -4470,10 +4455,10 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>5</v>
@@ -4484,13 +4469,13 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>23</v>
@@ -4507,10 +4492,10 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>5</v>
@@ -4521,10 +4506,10 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B174" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>5</v>
@@ -4535,7 +4520,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>141</v>
@@ -4552,10 +4537,10 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>5</v>
@@ -4566,10 +4551,10 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>5</v>
@@ -4580,10 +4565,10 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C178" s="0" t="s">
         <v>5</v>
@@ -4594,10 +4579,10 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C179" s="0" t="s">
         <v>5</v>
@@ -4608,10 +4593,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C180" s="0" t="s">
         <v>5</v>
@@ -4622,10 +4607,10 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>5</v>
@@ -4636,10 +4621,10 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C182" s="0" t="s">
         <v>5</v>
@@ -4650,10 +4635,10 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>5</v>
@@ -4664,10 +4649,10 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>5</v>
@@ -4678,13 +4663,13 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>5</v>
@@ -4695,27 +4680,24 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E186" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
         <v>5</v>
@@ -4726,10 +4708,10 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C188" s="0" t="s">
         <v>5</v>
@@ -4740,10 +4722,10 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>5</v>
@@ -4754,10 +4736,10 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>5</v>
@@ -4768,10 +4750,10 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C191" s="0" t="s">
         <v>5</v>
@@ -4782,10 +4764,10 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C192" s="0" t="s">
         <v>5</v>
@@ -4796,7 +4778,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>141</v>
@@ -4816,7 +4798,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>141</v>
@@ -4836,7 +4818,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>141</v>
@@ -4853,7 +4835,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>14</v>
@@ -4870,10 +4852,10 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>5</v>
@@ -4884,10 +4866,10 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C198" s="0" t="s">
         <v>5</v>
@@ -4898,10 +4880,10 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>4</v>
@@ -4915,7 +4897,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>14</v>
@@ -4932,10 +4914,10 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C201" s="0" t="s">
         <v>5</v>
@@ -4946,7 +4928,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>14</v>
@@ -4963,13 +4945,13 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>4</v>
@@ -4983,10 +4965,10 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>5</v>
@@ -4997,10 +4979,10 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>4</v>
@@ -5014,7 +4996,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>14</v>
@@ -5031,7 +5013,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>14</v>
@@ -5048,7 +5030,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>14</v>
@@ -5065,7 +5047,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>14</v>
@@ -5082,7 +5064,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B210" s="0" t="s">
         <v>14</v>
@@ -5099,7 +5081,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>14</v>
@@ -5116,10 +5098,10 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>5</v>
@@ -5130,7 +5112,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>14</v>
@@ -5147,10 +5129,10 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>5</v>
@@ -5161,7 +5143,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B215" s="0" t="s">
         <v>14</v>
@@ -5178,10 +5160,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>5</v>
@@ -5192,10 +5174,10 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>5</v>
@@ -5206,10 +5188,10 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>5</v>
@@ -5220,13 +5202,13 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>4</v>
@@ -5240,10 +5222,10 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>5</v>
@@ -5254,13 +5236,13 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>5</v>
@@ -5271,10 +5253,10 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>5</v>
@@ -5285,10 +5267,10 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>5</v>
@@ -5299,10 +5281,10 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>4</v>
@@ -5316,10 +5298,10 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>5</v>
@@ -5330,13 +5312,13 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>4</v>
@@ -5350,10 +5332,10 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>5</v>
@@ -5364,10 +5346,10 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>4</v>
@@ -5381,10 +5363,10 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>4</v>
@@ -5398,10 +5380,10 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>5</v>
@@ -5412,10 +5394,10 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>5</v>
@@ -5426,13 +5408,13 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B232" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>45</v>
@@ -5446,10 +5428,10 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>45</v>
@@ -5466,10 +5448,10 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>4</v>
@@ -5483,10 +5465,10 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>4</v>
@@ -5500,10 +5482,10 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>4</v>
@@ -5517,10 +5499,10 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>5</v>
@@ -5531,10 +5513,10 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>4</v>
@@ -5548,10 +5530,10 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>4</v>
@@ -5565,10 +5547,10 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>45</v>
@@ -5585,10 +5567,10 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>5</v>
@@ -5599,10 +5581,10 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>4</v>
@@ -5616,10 +5598,10 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>4</v>
@@ -5633,10 +5615,10 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>4</v>
@@ -5650,10 +5632,10 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>5</v>
@@ -5664,10 +5646,10 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>5</v>
@@ -5678,10 +5660,10 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>5</v>
@@ -5692,10 +5674,10 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>5</v>
@@ -5706,10 +5688,10 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>5</v>
@@ -5720,10 +5702,10 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>5</v>
@@ -5734,10 +5716,10 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C251" s="0" t="s">
         <v>5</v>
@@ -5748,10 +5730,10 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C252" s="0" t="s">
         <v>5</v>
@@ -5762,10 +5744,10 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>5</v>
@@ -5776,10 +5758,10 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C254" s="0" t="s">
         <v>5</v>
@@ -5790,10 +5772,10 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>5</v>
@@ -5804,10 +5786,10 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C256" s="0" t="s">
         <v>5</v>
@@ -5818,13 +5800,13 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>5</v>
@@ -5835,10 +5817,10 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>5</v>
@@ -5849,10 +5831,10 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>5</v>
@@ -5863,13 +5845,13 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>5</v>
@@ -5880,13 +5862,13 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>5</v>
@@ -5897,13 +5879,13 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>5</v>
@@ -5914,13 +5896,13 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>5</v>
@@ -5931,10 +5913,10 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>5</v>
@@ -5945,10 +5927,10 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>5</v>
@@ -5959,10 +5941,10 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C266" s="0" t="s">
         <v>5</v>
@@ -5973,7 +5955,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>4</v>
@@ -5987,13 +5969,13 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>5</v>
@@ -6004,13 +5986,13 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>5</v>
@@ -6021,13 +6003,13 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>5</v>
@@ -6038,10 +6020,10 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C271" s="0" t="s">
         <v>5</v>
@@ -6052,27 +6034,24 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E272" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C273" s="0" t="s">
         <v>5</v>
@@ -6083,10 +6062,10 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>5</v>
@@ -6097,13 +6076,13 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>5</v>
@@ -6114,7 +6093,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B276" s="0" t="s">
         <v>4</v>
@@ -6128,13 +6107,13 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>5</v>
@@ -6145,10 +6124,10 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>5</v>
@@ -6159,10 +6138,10 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C279" s="0" t="s">
         <v>5</v>
@@ -6173,10 +6152,10 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>5</v>
@@ -6187,10 +6166,10 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C281" s="0" t="s">
         <v>5</v>
@@ -6201,10 +6180,10 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C282" s="0" t="s">
         <v>5</v>
@@ -6215,10 +6194,10 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C283" s="0" t="s">
         <v>5</v>
@@ -6229,10 +6208,10 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C284" s="0" t="s">
         <v>5</v>
@@ -6243,13 +6222,13 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>5</v>
@@ -6260,10 +6239,10 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C286" s="0" t="s">
         <v>5</v>
@@ -6274,10 +6253,10 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>5</v>
@@ -6288,10 +6267,10 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>5</v>
@@ -6302,10 +6281,10 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>5</v>
@@ -6316,10 +6295,10 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C290" s="0" t="s">
         <v>5</v>
@@ -6330,16 +6309,16 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E291" s="0" t="s">
         <v>14</v>
@@ -6359,10 +6338,10 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>5</v>

--- a/processing/datapoints.xlsx
+++ b/processing/datapoints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,27 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="327">
   <si>
     <t xml:space="preserve">Steynberg Gallery</t>
   </si>
   <si>
-    <t xml:space="preserve">Art Gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point Of Interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establishment</t>
+    <t xml:space="preserve">art_gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point_of_interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">establishment</t>
   </si>
   <si>
     <t xml:space="preserve">Hands Gallery</t>
@@ -49,12 +49,15 @@
     <t xml:space="preserve">BlackHorse Espresso &amp; Bakery</t>
   </si>
   <si>
-    <t xml:space="preserve">Bakery</t>
+    <t xml:space="preserve">bakery</t>
   </si>
   <si>
     <t xml:space="preserve">Frame Works</t>
   </si>
   <si>
+    <t xml:space="preserve">not found</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poster Markei</t>
   </si>
   <si>
@@ -64,13 +67,13 @@
     <t xml:space="preserve">Copper Cafe</t>
   </si>
   <si>
-    <t xml:space="preserve">Restaurant</t>
+    <t xml:space="preserve">restaurant</t>
   </si>
   <si>
     <t xml:space="preserve">Creature Comfortz</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquarium</t>
+    <t xml:space="preserve">aquarium</t>
   </si>
   <si>
     <t xml:space="preserve">Art Central</t>
@@ -79,7 +82,7 @@
     <t xml:space="preserve">Laddon Anne</t>
   </si>
   <si>
-    <t xml:space="preserve">House Of Bread</t>
+    <t xml:space="preserve">House of Bread</t>
   </si>
   <si>
     <t xml:space="preserve">LEFT FIELD</t>
@@ -88,10 +91,10 @@
     <t xml:space="preserve">Matt Clark Tile &amp; Stone</t>
   </si>
   <si>
-    <t xml:space="preserve">General Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Goods Store</t>
+    <t xml:space="preserve">general_contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home_goods_store</t>
   </si>
   <si>
     <t xml:space="preserve">The John Landon Gallery</t>
@@ -124,25 +127,25 @@
     <t xml:space="preserve">Laguna Grill</t>
   </si>
   <si>
-    <t xml:space="preserve">Bar</t>
+    <t xml:space="preserve">bar</t>
   </si>
   <si>
     <t xml:space="preserve">Luna Red</t>
   </si>
   <si>
-    <t xml:space="preserve">Emily’S Cinnamon Rolls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House Of Bagels Central Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tahoe Joe'S</t>
+    <t xml:space="preserve">Emily’s Cinnamon Rolls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House of Bagels Central Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tahoe Joe's</t>
   </si>
   <si>
     <t xml:space="preserve">Panera Bread</t>
   </si>
   <si>
-    <t xml:space="preserve">Meal Takeaway</t>
+    <t xml:space="preserve">meal_takeaway</t>
   </si>
   <si>
     <t xml:space="preserve">Bliss Cafe</t>
@@ -157,7 +160,7 @@
     <t xml:space="preserve">The Claassen Gallery</t>
   </si>
   <si>
-    <t xml:space="preserve">Clothing Store</t>
+    <t xml:space="preserve">clothing_store</t>
   </si>
   <si>
     <t xml:space="preserve">Drew Davis Fine Art</t>
@@ -172,16 +175,16 @@
     <t xml:space="preserve">Novo Restaurant &amp; Lounge</t>
   </si>
   <si>
-    <t xml:space="preserve">Night Club</t>
+    <t xml:space="preserve">night_club</t>
   </si>
   <si>
     <t xml:space="preserve">Cloud 9 Smoke Shop</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirits Of Africa Gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sally Loo'S Wholesome Cafe</t>
+    <t xml:space="preserve">Spirits of Africa Gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sally Loo's Wholesome Cafe</t>
   </si>
   <si>
     <t xml:space="preserve">Blackhorse Espresso &amp; Bakery</t>
@@ -193,10 +196,10 @@
     <t xml:space="preserve">Hempshak</t>
   </si>
   <si>
-    <t xml:space="preserve">Jewelry Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giuseppe'S Cucina Rustica</t>
+    <t xml:space="preserve">jewelry_store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giuseppe's Cucina Rustica</t>
   </si>
   <si>
     <t xml:space="preserve">Cerro Caliente Cellars</t>
@@ -205,7 +208,7 @@
     <t xml:space="preserve">Central Coast Brewing</t>
   </si>
   <si>
-    <t xml:space="preserve">Liquor Store</t>
+    <t xml:space="preserve">liquor_store</t>
   </si>
   <si>
     <t xml:space="preserve">Koberl At Blue</t>
@@ -226,28 +229,28 @@
     <t xml:space="preserve">Sidecar</t>
   </si>
   <si>
-    <t xml:space="preserve">Mo'S Smokehouse BBQ</t>
+    <t xml:space="preserve">Mo's Smokehouse BBQ</t>
   </si>
   <si>
     <t xml:space="preserve">Black Sheep Bar &amp; Grill</t>
   </si>
   <si>
-    <t xml:space="preserve">McDonald'S</t>
+    <t xml:space="preserve">McDonald's</t>
   </si>
   <si>
     <t xml:space="preserve">Phoenix Books</t>
   </si>
   <si>
-    <t xml:space="preserve">Book Store</t>
+    <t xml:space="preserve">book_store</t>
   </si>
   <si>
     <t xml:space="preserve">Del Monte Cafe</t>
   </si>
   <si>
-    <t xml:space="preserve">Peet'S Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gennaro'S Grill &amp; Garden</t>
+    <t xml:space="preserve">Peet's Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gennaro's Grill &amp; Garden</t>
   </si>
   <si>
     <t xml:space="preserve">Big Sky Cafe</t>
@@ -256,28 +259,25 @@
     <t xml:space="preserve">Frog &amp; Peach Pub</t>
   </si>
   <si>
-    <t xml:space="preserve">Spike'S Pub</t>
+    <t xml:space="preserve">Spike's Pub</t>
   </si>
   <si>
     <t xml:space="preserve">Mustang Lanes</t>
   </si>
   <si>
-    <t xml:space="preserve">Bowling Alley</t>
+    <t xml:space="preserve">bowling_alley</t>
   </si>
   <si>
     <t xml:space="preserve">Kindred Books</t>
   </si>
   <si>
-    <t xml:space="preserve">Point Of IntErest</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rib Squeak Inc</t>
   </si>
   <si>
     <t xml:space="preserve">Barnes &amp; Noble</t>
   </si>
   <si>
-    <t xml:space="preserve">Electronics Store</t>
+    <t xml:space="preserve">electronics_store</t>
   </si>
   <si>
     <t xml:space="preserve">Starbucks</t>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">Coastal Peaks Coffee</t>
   </si>
   <si>
-    <t xml:space="preserve">McCarthy'S Irish Pub</t>
+    <t xml:space="preserve">McCarthy's Irish Pub</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee Diva</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">Boo Boo Records Inc</t>
   </si>
   <si>
-    <t xml:space="preserve">Linnaea'S Cafe</t>
+    <t xml:space="preserve">Linnaea's Cafe</t>
   </si>
   <si>
     <t xml:space="preserve">The Parable Group</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">Captain Nemo Games &amp; Comics</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Cain'S Comics And Games</t>
+    <t xml:space="preserve">Dr. Cain's Comics and Games</t>
   </si>
   <si>
     <t xml:space="preserve">Beautiful Feet Books</t>
@@ -331,28 +331,28 @@
     <t xml:space="preserve">Urban Outfitters</t>
   </si>
   <si>
-    <t xml:space="preserve">Shoe Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let'S Party Halloween</t>
+    <t xml:space="preserve">shoe_store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's Party halloween</t>
   </si>
   <si>
     <t xml:space="preserve">Target</t>
   </si>
   <si>
-    <t xml:space="preserve">Department Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grocery Or Supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Furniture Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Men'S Wearhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross Dress For Less</t>
+    <t xml:space="preserve">department_store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery_or_supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">furniture_store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men's Wearhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross Dress for Less</t>
   </si>
   <si>
     <t xml:space="preserve">The Sock Drawer</t>
@@ -379,13 +379,13 @@
     <t xml:space="preserve">Abercrombie &amp; Fitch</t>
   </si>
   <si>
-    <t xml:space="preserve">Kohl'S San Luis Obispo</t>
+    <t xml:space="preserve">Kohl's San Luis Obispo</t>
   </si>
   <si>
     <t xml:space="preserve">HomeGoods</t>
   </si>
   <si>
-    <t xml:space="preserve">Lodging</t>
+    <t xml:space="preserve">lodging</t>
   </si>
   <si>
     <t xml:space="preserve">Costco Wholesale</t>
@@ -394,13 +394,13 @@
     <t xml:space="preserve">Bed Bath &amp; Beyond</t>
   </si>
   <si>
-    <t xml:space="preserve">Bikram Yoga Of San Luis Obispo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
+    <t xml:space="preserve">Bikram Yoga of San Luis Obispo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health</t>
   </si>
   <si>
     <t xml:space="preserve">Central Coast Gymnastics Sports Center Inc.</t>
@@ -424,7 +424,7 @@
     <t xml:space="preserve">Club 24 Inc</t>
   </si>
   <si>
-    <t xml:space="preserve">Equilibrium Fitness For Women</t>
+    <t xml:space="preserve">Equilibrium Fitness for Women</t>
   </si>
   <si>
     <t xml:space="preserve">Paragon Brazilian Jiu-Jitsu San Luis Obispo</t>
@@ -445,13 +445,13 @@
     <t xml:space="preserve">Tuesday Morning</t>
   </si>
   <si>
-    <t xml:space="preserve">Pet Store</t>
+    <t xml:space="preserve">pet_store</t>
   </si>
   <si>
     <t xml:space="preserve">GYROTONIC® San Luis Obispo</t>
   </si>
   <si>
-    <t xml:space="preserve">Lululemon</t>
+    <t xml:space="preserve">lululemon</t>
   </si>
   <si>
     <t xml:space="preserve">Performance Athletics</t>
@@ -460,13 +460,13 @@
     <t xml:space="preserve">Balance A Pilates Studio</t>
   </si>
   <si>
-    <t xml:space="preserve">The Oxygen Studio Mild Hyperbaric Oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hair Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctor</t>
+    <t xml:space="preserve">The Oxygen Studio mild Hyperbaric Oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hair_care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doctor</t>
   </si>
   <si>
     <t xml:space="preserve">SLO Yoga Center</t>
@@ -481,13 +481,13 @@
     <t xml:space="preserve">Central Coast Krav Maga</t>
   </si>
   <si>
-    <t xml:space="preserve">Beverly'S Fabric &amp; Crafts</t>
+    <t xml:space="preserve">Beverly's Fabric &amp; Crafts</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Obispo Library</t>
   </si>
   <si>
-    <t xml:space="preserve">Library</t>
+    <t xml:space="preserve">library</t>
   </si>
   <si>
     <t xml:space="preserve">Wine Shed</t>
@@ -520,19 +520,19 @@
     <t xml:space="preserve">Broad Street Ribline</t>
   </si>
   <si>
-    <t xml:space="preserve">Meal Delivery</t>
+    <t xml:space="preserve">meal_delivery</t>
   </si>
   <si>
     <t xml:space="preserve">Blockbuster Express</t>
   </si>
   <si>
-    <t xml:space="preserve">Movie Rental</t>
+    <t xml:space="preserve">movie_rental</t>
   </si>
   <si>
     <t xml:space="preserve">The Habit Burger Grill</t>
   </si>
   <si>
-    <t xml:space="preserve">Gino'S Pizza SLO</t>
+    <t xml:space="preserve">Gino's Pizza SLO</t>
   </si>
   <si>
     <t xml:space="preserve">Which Wich Superior Sandwiches</t>
@@ -541,10 +541,10 @@
     <t xml:space="preserve">Downtown Centre Cinemas</t>
   </si>
   <si>
-    <t xml:space="preserve">Movie Theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother'S Tavern</t>
+    <t xml:space="preserve">movie_theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother's Tavern</t>
   </si>
   <si>
     <t xml:space="preserve">SLO Provisions</t>
@@ -559,7 +559,7 @@
     <t xml:space="preserve">Round Table Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">Mama'S Meatball</t>
+    <t xml:space="preserve">Mama's Meatball</t>
   </si>
   <si>
     <t xml:space="preserve">Sunset Drive-In</t>
@@ -571,10 +571,10 @@
     <t xml:space="preserve">Dream Dinners</t>
   </si>
   <si>
-    <t xml:space="preserve">Kona'S Deli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domino'S Pizza</t>
+    <t xml:space="preserve">Kona's Deli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domino's Pizza</t>
   </si>
   <si>
     <t xml:space="preserve">Taco Bell</t>
@@ -592,7 +592,7 @@
     <t xml:space="preserve">Costco Food Court</t>
   </si>
   <si>
-    <t xml:space="preserve">Jersey Mike'S Subs</t>
+    <t xml:space="preserve">Jersey Mike's Subs</t>
   </si>
   <si>
     <t xml:space="preserve">Foremost Wine Company</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">San Luis Obispo Railroad Museum</t>
   </si>
   <si>
-    <t xml:space="preserve">Museum</t>
+    <t xml:space="preserve">museum</t>
   </si>
   <si>
     <t xml:space="preserve">Palm Theatre</t>
@@ -610,7 +610,7 @@
     <t xml:space="preserve">Buffalo Wild Wings</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Obispo Museum Of Art</t>
+    <t xml:space="preserve">San Luis Obispo Museum of Art</t>
   </si>
   <si>
     <t xml:space="preserve">San Diego Museum Of Arts</t>
@@ -619,7 +619,7 @@
     <t xml:space="preserve">San Luis Obispo County Historical Museum</t>
   </si>
   <si>
-    <t xml:space="preserve">History Center Of San Luis Obispo County</t>
+    <t xml:space="preserve">History Center of San Luis Obispo County</t>
   </si>
   <si>
     <t xml:space="preserve">Fremont Theater</t>
@@ -631,7 +631,7 @@
     <t xml:space="preserve">Cuesta Park</t>
   </si>
   <si>
-    <t xml:space="preserve">Park</t>
+    <t xml:space="preserve">park</t>
   </si>
   <si>
     <t xml:space="preserve">Pet Boutique</t>
@@ -652,7 +652,7 @@
     <t xml:space="preserve">Leaning Pine Arboretum</t>
   </si>
   <si>
-    <t xml:space="preserve">Bishop'S Foothill Trailhead</t>
+    <t xml:space="preserve">Bishop's Foothill Trailhead</t>
   </si>
   <si>
     <t xml:space="preserve">Santa Rosa Park</t>
@@ -691,7 +691,7 @@
     <t xml:space="preserve">Tropics</t>
   </si>
   <si>
-    <t xml:space="preserve">PetDoors.Com</t>
+    <t xml:space="preserve">PetDoors.com</t>
   </si>
   <si>
     <t xml:space="preserve">Thai Palace</t>
@@ -700,13 +700,13 @@
     <t xml:space="preserve">Migrant Education Program</t>
   </si>
   <si>
-    <t xml:space="preserve">School</t>
+    <t xml:space="preserve">school</t>
   </si>
   <si>
     <t xml:space="preserve">SLO Classical Academy High School</t>
   </si>
   <si>
-    <t xml:space="preserve">ShoeSurfing.Com</t>
+    <t xml:space="preserve">ShoeSurfing.com</t>
   </si>
   <si>
     <t xml:space="preserve">SUBWAY®Restaurants</t>
@@ -721,13 +721,13 @@
     <t xml:space="preserve">Cal Poly Ticket Office</t>
   </si>
   <si>
-    <t xml:space="preserve">University</t>
+    <t xml:space="preserve">university</t>
   </si>
   <si>
     <t xml:space="preserve">The Laureate School</t>
   </si>
   <si>
-    <t xml:space="preserve">Mike'S Shoes</t>
+    <t xml:space="preserve">Mike's Shoes</t>
   </si>
   <si>
     <t xml:space="preserve">G-Brothers Smokehouse</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">Mission College Preparatory Catholic High School</t>
   </si>
   <si>
-    <t xml:space="preserve">Woodstock'S Pizza SLO</t>
+    <t xml:space="preserve">Woodstock's Pizza SLO</t>
   </si>
   <si>
     <t xml:space="preserve">Old Mission Pre-School</t>
@@ -760,7 +760,7 @@
     <t xml:space="preserve">Olive Grove Charter School</t>
   </si>
   <si>
-    <t xml:space="preserve">Child Development Resource Center Of The Central Coast</t>
+    <t xml:space="preserve">Child Development Resource Center of the Central Coast</t>
   </si>
   <si>
     <t xml:space="preserve">Foothill Preschool-Infant Care</t>
@@ -772,7 +772,7 @@
     <t xml:space="preserve">Pacific Beach High School</t>
   </si>
   <si>
-    <t xml:space="preserve">School Of Martial Arts</t>
+    <t xml:space="preserve">School of Martial Arts</t>
   </si>
   <si>
     <t xml:space="preserve">Sinsheimer Elementary School</t>
@@ -787,7 +787,7 @@
     <t xml:space="preserve">C. L. Smith Elementary School</t>
   </si>
   <si>
-    <t xml:space="preserve">ThreadHUB</t>
+    <t xml:space="preserve">threadHUB</t>
   </si>
   <si>
     <t xml:space="preserve">Hawthorne Elementary School</t>
@@ -802,7 +802,7 @@
     <t xml:space="preserve">San Luis Obispo High School</t>
   </si>
   <si>
-    <t xml:space="preserve">Bishop'S Peak Elementary School</t>
+    <t xml:space="preserve">Bishop's Peak Elementary School</t>
   </si>
   <si>
     <t xml:space="preserve">B Bella LLC</t>
@@ -814,13 +814,13 @@
     <t xml:space="preserve">Lemos</t>
   </si>
   <si>
-    <t xml:space="preserve">Shopping Mall</t>
+    <t xml:space="preserve">shopping_mall</t>
   </si>
   <si>
     <t xml:space="preserve">Northwestboots</t>
   </si>
   <si>
-    <t xml:space="preserve">SheepskinShoes.Com</t>
+    <t xml:space="preserve">SheepskinShoes.com</t>
   </si>
   <si>
     <t xml:space="preserve">United Methodist Children Center</t>
@@ -886,7 +886,7 @@
     <t xml:space="preserve">Max Relax - Chinese Reflexology &amp; Accupressure</t>
   </si>
   <si>
-    <t xml:space="preserve">Spa</t>
+    <t xml:space="preserve">spa</t>
   </si>
   <si>
     <t xml:space="preserve">Laurus College - San Luis Obispo</t>
@@ -898,13 +898,13 @@
     <t xml:space="preserve">Mind Spa Hypnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Annie Laurie Whole Body Therapy And SLO Massage</t>
+    <t xml:space="preserve">Annie Laurie Whole Body Therapy and SLO Massage</t>
   </si>
   <si>
     <t xml:space="preserve">Foothill Plaza Shopping Center</t>
   </si>
   <si>
-    <t xml:space="preserve">Premise</t>
+    <t xml:space="preserve">premise</t>
   </si>
   <si>
     <t xml:space="preserve">Rejuvenation Medical Skincare</t>
@@ -913,16 +913,16 @@
     <t xml:space="preserve">Sinsheimer Park Baseball Stdm</t>
   </si>
   <si>
-    <t xml:space="preserve">Stadium</t>
+    <t xml:space="preserve">stadium</t>
   </si>
   <si>
     <t xml:space="preserve">Bob Janssen Field</t>
   </si>
   <si>
-    <t xml:space="preserve">Face To Face</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signs Of Success</t>
+    <t xml:space="preserve">Face to Face</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signs of Success</t>
   </si>
   <si>
     <t xml:space="preserve">Rose Garden Inn</t>
@@ -931,7 +931,7 @@
     <t xml:space="preserve">Spoke SLO</t>
   </si>
   <si>
-    <t xml:space="preserve">Beauty Salon</t>
+    <t xml:space="preserve">beauty_salon</t>
   </si>
   <si>
     <t xml:space="preserve">Barefoot MomEase Wellness Spa</t>
@@ -940,7 +940,7 @@
     <t xml:space="preserve">Baggett Stadium</t>
   </si>
   <si>
-    <t xml:space="preserve">Department Chair Computer Science And Software Engineering</t>
+    <t xml:space="preserve">Department Chair Computer Science and Software Engineering</t>
   </si>
   <si>
     <t xml:space="preserve">Alex G. Spanos Stadium</t>
@@ -967,7 +967,7 @@
     <t xml:space="preserve">41A Brown Engineering</t>
   </si>
   <si>
-    <t xml:space="preserve">University Of La Verne Central</t>
+    <t xml:space="preserve">University of La Verne Central</t>
   </si>
   <si>
     <t xml:space="preserve">Trinity Hall</t>
@@ -1096,43 +1096,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K292"/>
+  <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.53571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4336734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="21.0204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1140,13 +1145,16 @@
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1154,22 +1162,25 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1177,96 +1188,111 @@
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1274,201 +1300,237 @@
       <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E17" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1476,462 +1538,558 @@
       <c r="A20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F20" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E22" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>14</v>
+      <c r="C25" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F26" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E27" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E28" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F29" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="E30" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F30" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I30" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="F31" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>3.7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="0" t="s">
+      <c r="E33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E34" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="E35" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="E36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="0" t="s">
+      <c r="E37" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H38" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="0" t="s">
+      <c r="E40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="E41" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F41" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E42" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1939,470 +2097,563 @@
       <c r="A43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="E43" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G43" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="0" t="s">
+      <c r="E44" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F45" s="0" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="G45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>4.6</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F46" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="C48" s="0" t="n">
+        <v>4.8</v>
+      </c>
       <c r="D48" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G48" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F49" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>4.5</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="F50" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>4.7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G51" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>4.7</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F52" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>3.6</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F53" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F54" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>3.9</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F55" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>14</v>
+        <v>70</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F56" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="E57" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G57" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>4</v>
+      <c r="C58" s="0" t="n">
+        <v>4.6</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E58" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="E59" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E60" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F60" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>4.7</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>14</v>
+      <c r="C62" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F62" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D63" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>61</v>
+        <v>79</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="F64" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>5</v>
+      <c r="C65" s="0" t="n">
+        <v>4.1</v>
       </c>
       <c r="D65" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E66" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2410,16 +2661,19 @@
       <c r="A67" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="C67" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E67" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2427,22 +2681,28 @@
       <c r="A68" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="0" t="s">
+      <c r="B68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F68" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G68" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2450,19 +2710,25 @@
       <c r="A69" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>3</v>
+      <c r="C69" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F69" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2470,19 +2736,22 @@
       <c r="A70" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="C70" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E70" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F70" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2490,13 +2759,16 @@
       <c r="A71" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>5</v>
+      <c r="C71" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D71" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2504,19 +2776,25 @@
       <c r="A72" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>3</v>
+      <c r="C72" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F72" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2524,19 +2802,22 @@
       <c r="A73" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E73" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F73" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2544,19 +2825,22 @@
       <c r="A74" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>45</v>
+      <c r="C74" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F74" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2564,19 +2848,25 @@
       <c r="A75" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>3</v>
+      <c r="C75" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F75" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2584,25 +2874,28 @@
       <c r="A76" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="F76" s="0" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H76" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2610,22 +2903,28 @@
       <c r="A77" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="E77" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G77" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2633,19 +2932,25 @@
       <c r="A78" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D78" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E78" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F78" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2653,19 +2958,22 @@
       <c r="A79" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="C79" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D79" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="E79" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F79" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2673,25 +2981,28 @@
       <c r="A80" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="F80" s="0" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H80" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2699,19 +3010,25 @@
       <c r="A81" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>14</v>
+      <c r="C81" s="0" t="n">
+        <v>4.5</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F81" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2719,19 +3036,25 @@
       <c r="A82" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>3</v>
+      <c r="C82" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F82" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2739,16 +3062,19 @@
       <c r="A83" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>4</v>
+      <c r="C83" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E83" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2756,19 +3082,22 @@
       <c r="A84" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>45</v>
+      <c r="C84" s="0" t="n">
+        <v>4.5</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F84" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2776,16 +3105,19 @@
       <c r="A85" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>4</v>
+      <c r="C85" s="0" t="n">
+        <v>4.7</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E85" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2793,16 +3125,19 @@
       <c r="A86" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>4</v>
+      <c r="C86" s="0" t="n">
+        <v>4.9</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E86" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2810,19 +3145,25 @@
       <c r="A87" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>23</v>
+      <c r="B87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>4.5</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F87" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2830,25 +3171,31 @@
       <c r="A88" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="0" t="s">
+      <c r="B88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="F88" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G88" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H88" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2856,19 +3203,22 @@
       <c r="A89" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>23</v>
+      <c r="C89" s="0" t="n">
+        <v>3.6</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F89" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2876,34 +3226,40 @@
       <c r="A90" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D90" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="E90" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="F90" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="G90" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="H90" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="J90" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K90" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M90" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2911,16 +3267,22 @@
       <c r="A91" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>4</v>
+      <c r="B91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>3.9</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E91" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2928,22 +3290,28 @@
       <c r="A92" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C92" s="0" t="s">
+      <c r="B92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="F92" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="G92" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2951,16 +3319,19 @@
       <c r="A93" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>4</v>
+      <c r="C93" s="0" t="n">
+        <v>4.6</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E93" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2968,19 +3339,22 @@
       <c r="A94" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="C94" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D94" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E94" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F94" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2988,19 +3362,25 @@
       <c r="A95" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>45</v>
+      <c r="B95" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F95" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3008,16 +3388,19 @@
       <c r="A96" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E96" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3025,16 +3408,19 @@
       <c r="A97" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>4</v>
+      <c r="C97" s="0" t="n">
+        <v>4.9</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E97" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3042,16 +3428,19 @@
       <c r="A98" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>4</v>
+      <c r="C98" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E98" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3059,22 +3448,28 @@
       <c r="A99" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D99" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="E99" s="0" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G99" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3082,16 +3477,22 @@
       <c r="A100" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>4</v>
+      <c r="B100" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>4.1</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E100" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3099,16 +3500,22 @@
       <c r="A101" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D101" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E101" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3116,25 +3523,31 @@
       <c r="A102" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D102" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="E102" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="F102" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G102" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H102" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3142,16 +3555,22 @@
       <c r="A103" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D103" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E103" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3159,22 +3578,28 @@
       <c r="A104" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D104" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="E104" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F104" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G104" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I104" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3182,16 +3607,19 @@
       <c r="A105" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="C105" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="E105" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" s="0" t="s">
+      <c r="F105" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3199,16 +3627,19 @@
       <c r="A106" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="C106" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D106" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="E106" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D106" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E106" s="0" t="s">
+      <c r="F106" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3216,16 +3647,19 @@
       <c r="A107" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>4</v>
+      <c r="C107" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E107" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3233,16 +3667,19 @@
       <c r="A108" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="C108" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D108" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="E108" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="0" t="s">
+      <c r="F108" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3250,16 +3687,19 @@
       <c r="A109" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="C109" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D109" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="E109" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="0" t="s">
+      <c r="F109" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3267,16 +3707,19 @@
       <c r="A110" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="C110" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D110" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="E110" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="0" t="s">
+      <c r="F110" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3284,16 +3727,19 @@
       <c r="A111" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D111" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="E111" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="0" t="s">
+      <c r="F111" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3301,16 +3747,19 @@
       <c r="A112" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="C112" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D112" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="E112" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="0" t="s">
+      <c r="F112" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3318,16 +3767,19 @@
       <c r="A113" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="C113" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D113" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="E113" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="0" t="s">
+      <c r="F113" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3335,16 +3787,19 @@
       <c r="A114" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="C114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D114" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="E114" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" s="0" t="s">
+      <c r="F114" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3352,22 +3807,25 @@
       <c r="A115" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F115" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G115" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I115" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3375,16 +3833,19 @@
       <c r="A116" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="C116" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D116" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="E116" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116" s="0" t="s">
+      <c r="F116" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3392,16 +3853,19 @@
       <c r="A117" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="C117" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D117" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="E117" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D117" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E117" s="0" t="s">
+      <c r="F117" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3409,16 +3873,19 @@
       <c r="A118" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="C118" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D118" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="E118" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E118" s="0" t="s">
+      <c r="F118" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3426,31 +3893,34 @@
       <c r="A119" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="F119" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="G119" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="F119" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="G119" s="0" t="s">
+      <c r="H119" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I119" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="H119" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="J119" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L119" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3458,16 +3928,19 @@
       <c r="A120" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="C120" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D120" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="E120" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" s="0" t="s">
+      <c r="F120" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3475,25 +3948,31 @@
       <c r="A121" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D121" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="E121" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="F121" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E121" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G121" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="H121" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J121" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3501,16 +3980,19 @@
       <c r="A122" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="C122" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D122" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="E122" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122" s="0" t="s">
+      <c r="F122" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3518,16 +4000,19 @@
       <c r="A123" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="C123" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D123" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="E123" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D123" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" s="0" t="s">
+      <c r="F123" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3535,25 +4020,28 @@
       <c r="A124" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="C124" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="E124" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="F124" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="G124" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F124" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="H124" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J124" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3561,16 +4049,19 @@
       <c r="A125" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="C125" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D125" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="E125" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D125" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" s="0" t="s">
+      <c r="F125" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3578,16 +4069,19 @@
       <c r="A126" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>4</v>
+      <c r="C126" s="0" t="n">
+        <v>4.7</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E126" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3595,16 +4089,19 @@
       <c r="A127" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="C127" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="E127" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D127" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" s="0" t="s">
+      <c r="F127" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3612,19 +4109,22 @@
       <c r="A128" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="C128" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="E128" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="F128" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3632,16 +4132,19 @@
       <c r="A129" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>4</v>
+      <c r="C129" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E129" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3649,13 +4152,16 @@
       <c r="A130" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="C130" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D130" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C130" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="0" t="s">
+      <c r="E130" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3663,22 +4169,25 @@
       <c r="A131" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>61</v>
+      <c r="C131" s="0" t="n">
+        <v>4.7</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G131" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I131" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3686,13 +4195,16 @@
       <c r="A132" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="C132" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D132" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C132" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="0" t="s">
+      <c r="E132" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3700,13 +4212,16 @@
       <c r="A133" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="C133" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D133" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C133" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="0" t="s">
+      <c r="E133" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3714,13 +4229,16 @@
       <c r="A134" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="C134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C134" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="0" t="s">
+      <c r="E134" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3728,25 +4246,28 @@
       <c r="A135" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="C135" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D135" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C135" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="E135" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H135" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I135" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J135" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3754,13 +4275,16 @@
       <c r="A136" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="C136" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="0" t="s">
+      <c r="E136" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3768,22 +4292,25 @@
       <c r="A137" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B137" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="C137" s="0" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G137" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H137" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I137" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3791,19 +4318,22 @@
       <c r="A138" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B138" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>50</v>
+      <c r="C138" s="0" t="n">
+        <v>3.8</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="F138" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H138" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3811,19 +4341,25 @@
       <c r="A139" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B139" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>14</v>
+      <c r="B139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>3.3</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F139" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H139" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3831,19 +4367,22 @@
       <c r="A140" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="C140" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D140" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C140" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="E140" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F140" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H140" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3851,16 +4390,22 @@
       <c r="A141" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C141" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E141" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3868,19 +4413,22 @@
       <c r="A142" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B142" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>14</v>
+      <c r="C142" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F142" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3888,19 +4436,22 @@
       <c r="A143" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="C143" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D143" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="E143" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F143" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3908,19 +4459,25 @@
       <c r="A144" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>14</v>
+      <c r="B144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F144" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3928,22 +4485,25 @@
       <c r="A145" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="C145" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D145" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="E145" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D145" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F145" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G145" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I145" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3951,19 +4511,25 @@
       <c r="A146" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B146" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>50</v>
+      <c r="B146" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>3.8</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="F146" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3971,22 +4537,25 @@
       <c r="A147" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="C147" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D147" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C147" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="E147" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G147" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I147" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3994,25 +4563,28 @@
       <c r="A148" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="C148" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D148" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C148" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="E148" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H148" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J148" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4020,22 +4592,28 @@
       <c r="A149" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D149" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C149" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="E149" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G149" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H149" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I149" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4043,22 +4621,28 @@
       <c r="A150" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D150" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C150" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="E150" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G150" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H150" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I150" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4066,19 +4650,25 @@
       <c r="A151" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B151" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>14</v>
+      <c r="B151" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>4.2</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F151" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4086,22 +4676,25 @@
       <c r="A152" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="C152" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D152" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="E152" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D152" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F152" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G152" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H152" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I152" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4109,19 +4702,25 @@
       <c r="A153" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B153" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>14</v>
+      <c r="B153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>3.8</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F153" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G153" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H153" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4129,19 +4728,25 @@
       <c r="A154" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B154" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>14</v>
+      <c r="B154" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>4.9</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F154" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4149,22 +4754,25 @@
       <c r="A155" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B155" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>14</v>
+      <c r="C155" s="0" t="n">
+        <v>4.5</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G155" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I155" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4172,22 +4780,28 @@
       <c r="A156" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D156" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C156" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="E156" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G156" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I156" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4195,19 +4809,25 @@
       <c r="A157" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B157" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>14</v>
+      <c r="B157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>3.7</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F157" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H157" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4215,13 +4835,16 @@
       <c r="A158" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="C158" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D158" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C158" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="0" t="s">
+      <c r="E158" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4229,19 +4852,22 @@
       <c r="A159" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B159" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>14</v>
+      <c r="C159" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F159" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H159" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4249,19 +4875,25 @@
       <c r="A160" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B160" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C160" s="0" t="s">
-        <v>14</v>
+      <c r="B160" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>3.7</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F160" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H160" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4269,19 +4901,25 @@
       <c r="A161" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B161" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C161" s="0" t="s">
-        <v>14</v>
+      <c r="B161" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>4.2</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F161" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H161" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4289,19 +4927,25 @@
       <c r="A162" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B162" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>14</v>
+      <c r="B162" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>4.2</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F162" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H162" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4309,22 +4953,28 @@
       <c r="A163" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B163" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>14</v>
+      <c r="B163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G163" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H163" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I163" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4332,22 +4982,25 @@
       <c r="A164" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B164" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>50</v>
+      <c r="C164" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G164" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H164" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I164" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4355,13 +5008,16 @@
       <c r="A165" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="C165" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D165" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C165" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="0" t="s">
+      <c r="E165" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4369,22 +5025,25 @@
       <c r="A166" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="C166" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D166" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="E166" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D166" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E166" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F166" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G166" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I166" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4392,22 +5051,28 @@
       <c r="A167" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>34</v>
+      <c r="B167" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>3.6</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G167" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H167" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I167" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4415,13 +5080,16 @@
       <c r="A168" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="C168" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D168" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C168" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="0" t="s">
+      <c r="E168" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4429,13 +5097,16 @@
       <c r="A169" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="C169" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C169" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="0" t="s">
+      <c r="E169" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4443,13 +5114,16 @@
       <c r="A170" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="C170" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D170" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C170" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="0" t="s">
+      <c r="E170" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F170" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4457,13 +5131,16 @@
       <c r="A171" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="C171" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D171" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C171" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="0" t="s">
+      <c r="E171" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F171" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4471,22 +5148,25 @@
       <c r="A172" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="C172" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D172" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="E172" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D172" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="F172" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G172" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H172" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I172" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4494,13 +5174,16 @@
       <c r="A173" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="C173" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D173" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C173" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D173" s="0" t="s">
+      <c r="E173" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F173" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4508,13 +5191,16 @@
       <c r="A174" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="C174" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D174" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C174" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174" s="0" t="s">
+      <c r="E174" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4522,16 +5208,19 @@
       <c r="A175" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="C175" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C175" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E175" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G175" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4539,13 +5228,16 @@
       <c r="A176" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="C176" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D176" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C176" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176" s="0" t="s">
+      <c r="E176" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F176" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4553,13 +5245,16 @@
       <c r="A177" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="C177" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D177" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C177" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" s="0" t="s">
+      <c r="E177" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4567,13 +5262,16 @@
       <c r="A178" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="C178" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D178" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C178" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D178" s="0" t="s">
+      <c r="E178" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F178" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4581,13 +5279,16 @@
       <c r="A179" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="C179" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D179" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C179" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" s="0" t="s">
+      <c r="E179" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F179" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4595,13 +5296,16 @@
       <c r="A180" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="C180" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D180" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C180" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" s="0" t="s">
+      <c r="E180" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F180" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4609,13 +5313,16 @@
       <c r="A181" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="C181" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D181" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C181" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="0" t="s">
+      <c r="E181" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F181" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4623,13 +5330,16 @@
       <c r="A182" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="C182" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D182" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C182" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D182" s="0" t="s">
+      <c r="E182" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4637,13 +5347,16 @@
       <c r="A183" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="C183" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C183" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D183" s="0" t="s">
+      <c r="E183" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4651,13 +5364,16 @@
       <c r="A184" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="C184" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D184" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C184" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D184" s="0" t="s">
+      <c r="E184" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F184" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4665,16 +5381,19 @@
       <c r="A185" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="C185" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D185" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="E185" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D185" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E185" s="0" t="s">
+      <c r="F185" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4682,13 +5401,16 @@
       <c r="A186" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="C186" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D186" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C186" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D186" s="0" t="s">
+      <c r="E186" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F186" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4696,13 +5418,16 @@
       <c r="A187" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="C187" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D187" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C187" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D187" s="0" t="s">
+      <c r="E187" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F187" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4710,13 +5435,16 @@
       <c r="A188" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="C188" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D188" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C188" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D188" s="0" t="s">
+      <c r="E188" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F188" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4724,13 +5452,16 @@
       <c r="A189" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="C189" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D189" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C189" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D189" s="0" t="s">
+      <c r="E189" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4738,13 +5469,16 @@
       <c r="A190" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="C190" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D190" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C190" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D190" s="0" t="s">
+      <c r="E190" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4752,13 +5486,16 @@
       <c r="A191" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="C191" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D191" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C191" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D191" s="0" t="s">
+      <c r="E191" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F191" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4766,13 +5503,16 @@
       <c r="A192" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="C192" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C192" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D192" s="0" t="s">
+      <c r="E192" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4780,19 +5520,25 @@
       <c r="A193" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D193" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C193" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E193" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F193" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G193" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H193" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4800,19 +5546,22 @@
       <c r="A194" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="C194" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D194" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C194" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E194" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F194" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G194" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H194" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4820,16 +5569,19 @@
       <c r="A195" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="C195" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D195" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C195" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D195" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E195" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4837,16 +5589,22 @@
       <c r="A196" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B196" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>3</v>
+      <c r="B196" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E196" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G196" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4854,13 +5612,16 @@
       <c r="A197" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="C197" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C197" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" s="0" t="s">
+      <c r="E197" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4868,13 +5629,16 @@
       <c r="A198" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="C198" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D198" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C198" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D198" s="0" t="s">
+      <c r="E198" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4882,16 +5646,19 @@
       <c r="A199" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="C199" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C199" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D199" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E199" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4899,16 +5666,22 @@
       <c r="A200" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B200" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C200" s="0" t="s">
-        <v>3</v>
+      <c r="B200" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>3.8</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E200" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F200" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G200" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4916,13 +5689,16 @@
       <c r="A201" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="C201" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D201" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C201" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D201" s="0" t="s">
+      <c r="E201" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4930,16 +5706,19 @@
       <c r="A202" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B202" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" s="0" t="s">
-        <v>3</v>
+      <c r="C202" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E202" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G202" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4947,19 +5726,22 @@
       <c r="A203" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="C203" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D203" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="E203" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D203" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E203" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="F203" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H203" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4967,13 +5749,16 @@
       <c r="A204" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="C204" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C204" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D204" s="0" t="s">
+      <c r="E204" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F204" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4981,16 +5766,19 @@
       <c r="A205" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="C205" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D205" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C205" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D205" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E205" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G205" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4998,16 +5786,22 @@
       <c r="A206" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B206" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>3</v>
+      <c r="B206" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>4.2</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E206" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G206" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5015,16 +5809,22 @@
       <c r="A207" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B207" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>3</v>
+      <c r="B207" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E207" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G207" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5032,16 +5832,22 @@
       <c r="A208" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B208" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>3</v>
+      <c r="B208" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>4.5</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E208" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G208" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5049,16 +5855,22 @@
       <c r="A209" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B209" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>3</v>
+      <c r="B209" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E209" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G209" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5066,16 +5878,22 @@
       <c r="A210" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B210" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>3</v>
+      <c r="B210" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>4.8</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E210" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G210" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5083,16 +5901,22 @@
       <c r="A211" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B211" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>3</v>
+      <c r="B211" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E211" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G211" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5100,13 +5924,16 @@
       <c r="A212" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="C212" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D212" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C212" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D212" s="0" t="s">
+      <c r="E212" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F212" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5114,16 +5941,22 @@
       <c r="A213" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B213" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>3</v>
+      <c r="B213" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>4.3</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E213" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G213" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5131,13 +5964,16 @@
       <c r="A214" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="C214" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C214" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D214" s="0" t="s">
+      <c r="E214" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F214" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5145,16 +5981,22 @@
       <c r="A215" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B215" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>3</v>
+      <c r="B215" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>4.5</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E215" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G215" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5162,13 +6004,16 @@
       <c r="A216" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="C216" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C216" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D216" s="0" t="s">
+      <c r="E216" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F216" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5176,13 +6021,16 @@
       <c r="A217" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="C217" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C217" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D217" s="0" t="s">
+      <c r="E217" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F217" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5190,13 +6038,16 @@
       <c r="A218" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="C218" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D218" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C218" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D218" s="0" t="s">
+      <c r="E218" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F218" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5204,19 +6055,22 @@
       <c r="A219" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="C219" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D219" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="E219" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D219" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E219" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="F219" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G219" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H219" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5224,13 +6078,16 @@
       <c r="A220" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="C220" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D220" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C220" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D220" s="0" t="s">
+      <c r="E220" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F220" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5238,16 +6095,19 @@
       <c r="A221" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="C221" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="E221" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D221" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E221" s="0" t="s">
+      <c r="F221" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G221" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5255,13 +6115,16 @@
       <c r="A222" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="C222" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D222" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C222" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D222" s="0" t="s">
+      <c r="E222" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F222" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5269,13 +6132,16 @@
       <c r="A223" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="C223" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C223" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D223" s="0" t="s">
+      <c r="E223" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F223" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5283,16 +6149,22 @@
       <c r="A224" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D224" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C224" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D224" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E224" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G224" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5300,13 +6172,16 @@
       <c r="A225" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="C225" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D225" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C225" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D225" s="0" t="s">
+      <c r="E225" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F225" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5314,19 +6189,22 @@
       <c r="A226" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B226" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E226" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D226" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="F226" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G226" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H226" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5334,13 +6212,16 @@
       <c r="A227" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="C227" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D227" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C227" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D227" s="0" t="s">
+      <c r="E227" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F227" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5348,16 +6229,19 @@
       <c r="A228" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="C228" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D228" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C228" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D228" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E228" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G228" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5365,16 +6249,19 @@
       <c r="A229" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="C229" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D229" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C229" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D229" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E229" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G229" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5382,13 +6269,16 @@
       <c r="A230" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="C230" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D230" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C230" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D230" s="0" t="s">
+      <c r="E230" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F230" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5396,13 +6286,16 @@
       <c r="A231" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="C231" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D231" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C231" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D231" s="0" t="s">
+      <c r="E231" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5410,19 +6303,22 @@
       <c r="A232" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B232" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" s="0" t="s">
+      <c r="C232" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E232" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D232" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E232" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="F232" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G232" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H232" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5430,19 +6326,22 @@
       <c r="A233" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="C233" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D233" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C233" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E233" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F233" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G233" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H233" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5450,16 +6349,19 @@
       <c r="A234" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="C234" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D234" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C234" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D234" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E234" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G234" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5467,16 +6369,19 @@
       <c r="A235" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="C235" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C235" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D235" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E235" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G235" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5484,16 +6389,19 @@
       <c r="A236" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="C236" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C236" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D236" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E236" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F236" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G236" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5501,13 +6409,16 @@
       <c r="A237" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="C237" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D237" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C237" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D237" s="0" t="s">
+      <c r="E237" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5515,16 +6426,22 @@
       <c r="A238" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D238" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C238" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D238" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E238" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G238" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5532,16 +6449,19 @@
       <c r="A239" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="C239" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C239" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E239" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F239" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G239" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5549,19 +6469,22 @@
       <c r="A240" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="C240" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D240" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C240" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="E240" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F240" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G240" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H240" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5569,13 +6492,16 @@
       <c r="A241" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="C241" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D241" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C241" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D241" s="0" t="s">
+      <c r="E241" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F241" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5583,16 +6509,19 @@
       <c r="A242" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="C242" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C242" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D242" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E242" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G242" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5600,16 +6529,19 @@
       <c r="A243" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="C243" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D243" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C243" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D243" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E243" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G243" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5617,16 +6549,19 @@
       <c r="A244" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="C244" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C244" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D244" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="E244" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F244" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G244" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5634,13 +6569,16 @@
       <c r="A245" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="C245" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C245" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D245" s="0" t="s">
+      <c r="E245" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5648,13 +6586,16 @@
       <c r="A246" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="C246" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C246" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D246" s="0" t="s">
+      <c r="E246" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F246" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5662,13 +6603,16 @@
       <c r="A247" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="C247" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D247" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C247" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D247" s="0" t="s">
+      <c r="E247" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F247" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5676,13 +6620,16 @@
       <c r="A248" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="C248" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D248" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C248" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D248" s="0" t="s">
+      <c r="E248" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F248" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5690,13 +6637,16 @@
       <c r="A249" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="C249" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C249" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D249" s="0" t="s">
+      <c r="E249" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5704,13 +6654,16 @@
       <c r="A250" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="C250" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C250" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D250" s="0" t="s">
+      <c r="E250" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F250" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5718,13 +6671,16 @@
       <c r="A251" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="C251" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D251" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C251" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D251" s="0" t="s">
+      <c r="E251" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F251" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5732,13 +6688,16 @@
       <c r="A252" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="C252" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D252" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C252" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D252" s="0" t="s">
+      <c r="E252" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F252" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5746,13 +6705,16 @@
       <c r="A253" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="C253" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D253" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C253" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D253" s="0" t="s">
+      <c r="E253" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F253" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5760,13 +6722,16 @@
       <c r="A254" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="C254" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D254" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C254" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D254" s="0" t="s">
+      <c r="E254" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F254" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5774,13 +6739,16 @@
       <c r="A255" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="C255" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D255" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C255" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D255" s="0" t="s">
+      <c r="E255" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F255" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5788,13 +6756,16 @@
       <c r="A256" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="C256" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C256" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D256" s="0" t="s">
+      <c r="E256" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F256" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5802,16 +6773,19 @@
       <c r="A257" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="C257" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D257" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C257" s="0" t="s">
+      <c r="E257" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D257" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E257" s="0" t="s">
+      <c r="F257" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G257" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5819,13 +6793,16 @@
       <c r="A258" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="C258" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D258" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C258" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D258" s="0" t="s">
+      <c r="E258" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F258" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5833,13 +6810,16 @@
       <c r="A259" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="C259" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C259" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D259" s="0" t="s">
+      <c r="E259" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F259" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5847,16 +6827,19 @@
       <c r="A260" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="C260" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="E260" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D260" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E260" s="0" t="s">
+      <c r="F260" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G260" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5864,16 +6847,19 @@
       <c r="A261" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="C261" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D261" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="E261" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D261" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E261" s="0" t="s">
+      <c r="F261" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G261" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5881,16 +6867,19 @@
       <c r="A262" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="C262" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="E262" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="D262" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E262" s="0" t="s">
+      <c r="F262" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G262" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5898,16 +6887,19 @@
       <c r="A263" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="C263" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="E263" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D263" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E263" s="0" t="s">
+      <c r="F263" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G263" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5915,13 +6907,16 @@
       <c r="A264" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="C264" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D264" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C264" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D264" s="0" t="s">
+      <c r="E264" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F264" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5929,13 +6924,16 @@
       <c r="A265" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="C265" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D265" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C265" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D265" s="0" t="s">
+      <c r="E265" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F265" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5943,13 +6941,16 @@
       <c r="A266" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="C266" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D266" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C266" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D266" s="0" t="s">
+      <c r="E266" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F266" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5957,13 +6958,16 @@
       <c r="A267" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B267" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="C267" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D267" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F267" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5971,16 +6975,19 @@
       <c r="A268" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="C268" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D268" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="E268" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D268" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E268" s="0" t="s">
+      <c r="F268" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G268" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5988,16 +6995,19 @@
       <c r="A269" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="C269" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D269" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="E269" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="D269" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E269" s="0" t="s">
+      <c r="F269" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G269" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6005,16 +7015,19 @@
       <c r="A270" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="C270" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D270" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="E270" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D270" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E270" s="0" t="s">
+      <c r="F270" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G270" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6022,13 +7035,16 @@
       <c r="A271" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="C271" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D271" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C271" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D271" s="0" t="s">
+      <c r="E271" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F271" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6036,13 +7052,16 @@
       <c r="A272" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="C272" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D272" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C272" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D272" s="0" t="s">
+      <c r="E272" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F272" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6050,13 +7069,16 @@
       <c r="A273" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="C273" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D273" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C273" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D273" s="0" t="s">
+      <c r="E273" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6064,13 +7086,16 @@
       <c r="A274" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="C274" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D274" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C274" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D274" s="0" t="s">
+      <c r="E274" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F274" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6078,16 +7103,19 @@
       <c r="A275" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="C275" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="E275" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="D275" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E275" s="0" t="s">
+      <c r="F275" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G275" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6095,13 +7123,16 @@
       <c r="A276" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B276" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>5</v>
+      <c r="C276" s="0" t="n">
+        <v>4.4</v>
       </c>
       <c r="D276" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F276" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6109,16 +7140,19 @@
       <c r="A277" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="C277" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="E277" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="D277" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E277" s="0" t="s">
+      <c r="F277" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G277" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6126,13 +7160,16 @@
       <c r="A278" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="C278" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D278" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C278" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D278" s="0" t="s">
+      <c r="E278" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F278" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6140,13 +7177,16 @@
       <c r="A279" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="C279" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D279" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C279" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D279" s="0" t="s">
+      <c r="E279" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F279" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6154,13 +7194,16 @@
       <c r="A280" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="C280" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D280" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C280" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D280" s="0" t="s">
+      <c r="E280" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F280" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6168,13 +7211,16 @@
       <c r="A281" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="C281" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C281" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D281" s="0" t="s">
+      <c r="E281" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F281" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6182,13 +7228,16 @@
       <c r="A282" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="C282" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D282" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C282" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D282" s="0" t="s">
+      <c r="E282" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F282" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6196,13 +7245,16 @@
       <c r="A283" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="C283" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D283" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C283" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D283" s="0" t="s">
+      <c r="E283" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F283" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6210,13 +7262,16 @@
       <c r="A284" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="C284" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D284" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C284" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D284" s="0" t="s">
+      <c r="E284" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F284" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6224,16 +7279,19 @@
       <c r="A285" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="C285" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D285" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="E285" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="D285" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E285" s="0" t="s">
+      <c r="F285" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G285" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6241,13 +7299,16 @@
       <c r="A286" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="C286" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D286" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C286" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D286" s="0" t="s">
+      <c r="E286" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F286" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6255,13 +7316,16 @@
       <c r="A287" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="C287" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D287" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C287" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D287" s="0" t="s">
+      <c r="E287" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F287" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6269,13 +7333,16 @@
       <c r="A288" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="C288" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D288" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C288" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D288" s="0" t="s">
+      <c r="E288" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F288" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6283,13 +7350,16 @@
       <c r="A289" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="C289" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D289" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C289" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D289" s="0" t="s">
+      <c r="E289" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F289" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6297,13 +7367,16 @@
       <c r="A290" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="C290" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D290" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C290" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D290" s="0" t="s">
+      <c r="E290" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F290" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6311,28 +7384,31 @@
       <c r="A291" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="C291" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D291" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C291" s="0" t="s">
+      <c r="E291" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D291" s="0" t="s">
+      <c r="F291" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E291" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F291" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="G291" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H291" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I291" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J291" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K291" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6340,13 +7416,16 @@
       <c r="A292" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="C292" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D292" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C292" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D292" s="0" t="s">
+      <c r="E292" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F292" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/processing/datapoints.xlsx
+++ b/processing/datapoints.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="326">
   <si>
     <t xml:space="preserve">Steynberg Gallery</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">Frame Works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not found</t>
   </si>
   <si>
     <t xml:space="preserve">Poster Markei</t>
@@ -1098,15 +1095,15 @@
   </sheetPr>
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.53571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0765306122449"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6071428571429"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4336734693878"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="21.0204081632653"/>
@@ -1188,9 +1185,6 @@
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="0" t="s">
         <v>1</v>
       </c>
@@ -1206,9 +1200,6 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -1226,7 +1217,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4.6</v>
@@ -1252,7 +1243,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3.7</v>
@@ -1264,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>3</v>
@@ -1281,13 +1272,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>5</v>
@@ -1324,7 +1312,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4.6</v>
@@ -1344,10 +1332,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>1</v>
@@ -1361,7 +1346,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4.5</v>
@@ -1384,7 +1369,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4.6</v>
@@ -1401,7 +1386,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4.4</v>
@@ -1410,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>4</v>
@@ -1427,10 +1412,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>1</v>
@@ -1444,10 +1426,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>9</v>
@@ -1467,7 +1446,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>4.7</v>
@@ -1490,7 +1469,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2</v>
@@ -1513,10 +1492,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>9</v>
@@ -1562,7 +1538,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>5</v>
@@ -1585,7 +1561,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3.8</v>
@@ -1608,7 +1584,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -1623,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>3</v>
@@ -1640,7 +1616,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2</v>
@@ -1652,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>3</v>
@@ -1669,16 +1645,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>4.3</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>3</v>
@@ -1692,7 +1668,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2</v>
@@ -1701,10 +1677,10 @@
         <v>4.3</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>3</v>
@@ -1718,7 +1694,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3.5</v>
@@ -1741,7 +1717,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -1767,7 +1743,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2</v>
@@ -1776,10 +1752,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>3</v>
@@ -1793,7 +1769,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -1808,10 +1784,10 @@
         <v>2</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>3</v>
@@ -1828,7 +1804,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -1843,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>3</v>
@@ -1860,7 +1836,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2</v>
@@ -1869,10 +1845,10 @@
         <v>3.7</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>3</v>
@@ -1886,7 +1862,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>5</v>
@@ -1903,16 +1879,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>4</v>
@@ -1926,7 +1899,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>5</v>
@@ -1943,10 +1916,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>1</v>
@@ -1960,7 +1930,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>4.6</v>
@@ -1977,7 +1947,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2</v>
@@ -1986,16 +1956,16 @@
         <v>4.4</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>3</v>
@@ -2009,7 +1979,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>4.4</v>
@@ -2029,10 +1999,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>1</v>
@@ -2046,7 +2013,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>4.6</v>
@@ -2072,10 +2039,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>9</v>
@@ -2121,10 +2085,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>1</v>
@@ -2138,19 +2099,19 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>4</v>
@@ -2164,7 +2125,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2</v>
@@ -2173,10 +2134,10 @@
         <v>4.6</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>3</v>
@@ -2190,13 +2151,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>3</v>
@@ -2213,16 +2174,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>4.8</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>3</v>
@@ -2239,7 +2200,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2</v>
@@ -2248,10 +2209,10 @@
         <v>4.4</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>3</v>
@@ -2265,16 +2226,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>3</v>
@@ -2288,16 +2249,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>3</v>
@@ -2314,16 +2275,16 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>3</v>
@@ -2337,16 +2298,16 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>3</v>
@@ -2360,16 +2321,16 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>3</v>
@@ -2383,7 +2344,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -2392,10 +2353,10 @@
         <v>3.9</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>3</v>
@@ -2409,16 +2370,16 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>3</v>
@@ -2432,7 +2393,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1</v>
@@ -2444,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>3</v>
@@ -2461,13 +2422,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>4</v>
@@ -2481,7 +2442,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -2493,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>3</v>
@@ -2507,7 +2468,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1</v>
@@ -2533,16 +2494,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>3</v>
@@ -2556,7 +2517,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2</v>
@@ -2568,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>3</v>
@@ -2582,13 +2543,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>4.3</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>5</v>
@@ -2599,16 +2560,16 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>4.3</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>4</v>
@@ -2622,13 +2583,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>4.1</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>5</v>
@@ -2639,13 +2600,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>4</v>
@@ -2659,13 +2617,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>4</v>
@@ -2679,7 +2634,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -2688,13 +2643,13 @@
         <v>4.3</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>4</v>
@@ -2708,7 +2663,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -2734,7 +2689,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>4.6</v>
@@ -2757,13 +2712,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>4.3</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>5</v>
@@ -2774,7 +2729,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2</v>
@@ -2800,10 +2755,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>2</v>
@@ -2823,16 +2775,16 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>4</v>
@@ -2846,7 +2798,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2</v>
@@ -2872,22 +2824,22 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>4</v>
@@ -2901,7 +2853,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1</v>
@@ -2913,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>3</v>
@@ -2930,7 +2882,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1</v>
@@ -2956,7 +2908,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4.7</v>
@@ -2965,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>3</v>
@@ -2979,22 +2931,22 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>4</v>
@@ -3008,7 +2960,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2</v>
@@ -3020,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>3</v>
@@ -3034,7 +2986,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>2</v>
@@ -3060,13 +3012,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>4</v>
@@ -3080,16 +3032,16 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>4</v>
@@ -3103,13 +3055,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>4</v>
@@ -3123,13 +3075,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>4.9</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>4</v>
@@ -3143,7 +3095,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2</v>
@@ -3152,10 +3104,10 @@
         <v>4.5</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>4</v>
@@ -3169,7 +3121,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>3</v>
@@ -3178,16 +3130,16 @@
         <v>3.7</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>4</v>
@@ -3201,16 +3153,16 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>4</v>
@@ -3224,7 +3176,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>2</v>
@@ -3233,25 +3185,25 @@
         <v>4.1</v>
       </c>
       <c r="D90" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F90" s="0" t="s">
+      <c r="G90" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="G90" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="J90" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K90" s="0" t="s">
         <v>4</v>
@@ -3265,7 +3217,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>2</v>
@@ -3274,7 +3226,7 @@
         <v>3.9</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>4</v>
@@ -3288,7 +3240,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>1</v>
@@ -3297,13 +3249,13 @@
         <v>3.9</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>4</v>
@@ -3317,13 +3269,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>4</v>
@@ -3337,16 +3289,16 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>3.9</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>4</v>
@@ -3360,16 +3312,13 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D95" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>3</v>
@@ -3386,13 +3335,13 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>4</v>
@@ -3406,13 +3355,13 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>4.9</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>4</v>
@@ -3426,13 +3375,13 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>4</v>
@@ -3446,7 +3395,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>1</v>
@@ -3455,13 +3404,13 @@
         <v>4.2</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>4</v>
@@ -3475,7 +3424,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>3</v>
@@ -3484,7 +3433,7 @@
         <v>4.1</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>4</v>
@@ -3498,7 +3447,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>1</v>
@@ -3507,7 +3456,7 @@
         <v>3.8</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>4</v>
@@ -3521,7 +3470,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
@@ -3530,16 +3479,16 @@
         <v>4.2</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>4</v>
@@ -3553,7 +3502,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2</v>
@@ -3562,7 +3511,7 @@
         <v>4.5</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>4</v>
@@ -3576,7 +3525,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2</v>
@@ -3585,13 +3534,13 @@
         <v>4.1</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>4</v>
@@ -3605,16 +3554,16 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C105" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D105" s="0" t="s">
+      <c r="E105" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>5</v>
@@ -3625,16 +3574,16 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>4.1</v>
       </c>
       <c r="D106" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>5</v>
@@ -3645,13 +3594,13 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>4</v>
@@ -3665,16 +3614,16 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D108" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>5</v>
@@ -3685,16 +3634,16 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>4.8</v>
       </c>
       <c r="D109" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>5</v>
@@ -3705,16 +3654,16 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D110" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>5</v>
@@ -3725,16 +3674,16 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>4.9</v>
       </c>
       <c r="D111" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>5</v>
@@ -3745,16 +3694,16 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D112" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>5</v>
@@ -3765,16 +3714,16 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>4.9</v>
       </c>
       <c r="D113" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>5</v>
@@ -3785,16 +3734,16 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D114" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>5</v>
@@ -3805,19 +3754,19 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>4</v>
@@ -3831,16 +3780,16 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>4.1</v>
       </c>
       <c r="D116" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>5</v>
@@ -3851,16 +3800,16 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D117" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>5</v>
@@ -3871,16 +3820,16 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D118" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>5</v>
@@ -3891,28 +3840,28 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G119" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I119" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="H119" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="J119" s="0" t="s">
         <v>4</v>
@@ -3926,16 +3875,16 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D120" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>5</v>
@@ -3946,7 +3895,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>3</v>
@@ -3955,16 +3904,16 @@
         <v>4</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E121" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F121" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="F121" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="G121" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>4</v>
@@ -3978,16 +3927,16 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="D122" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>5</v>
@@ -3998,16 +3947,16 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E123" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>5</v>
@@ -4018,22 +3967,19 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E124" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C124" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="0" t="s">
+      <c r="F124" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G124" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>4</v>
@@ -4047,16 +3993,16 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D125" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E125" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>5</v>
@@ -4067,13 +4013,13 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>4</v>
@@ -4087,16 +4033,13 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="D127" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>5</v>
@@ -4107,16 +4050,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="D128" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E128" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F128" s="0" t="s">
         <v>4</v>
@@ -4130,13 +4070,13 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>4</v>
@@ -4150,13 +4090,13 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>5</v>
@@ -4167,16 +4107,16 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>3</v>
@@ -4193,13 +4133,13 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>5</v>
@@ -4210,13 +4150,13 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>5</v>
@@ -4227,13 +4167,13 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>5</v>
@@ -4244,7 +4184,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>4.9</v>
@@ -4253,10 +4193,10 @@
         <v>2</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G135" s="0" t="s">
         <v>3</v>
@@ -4273,13 +4213,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>5</v>
@@ -4290,16 +4227,13 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>3</v>
@@ -4316,16 +4250,16 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>3.8</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>3</v>
@@ -4339,7 +4273,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>1</v>
@@ -4348,10 +4282,10 @@
         <v>3.3</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F139" s="0" t="s">
         <v>3</v>
@@ -4365,16 +4299,16 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F140" s="0" t="s">
         <v>3</v>
@@ -4388,16 +4322,13 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C141" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D141" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>4</v>
@@ -4411,16 +4342,16 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F142" s="0" t="s">
         <v>3</v>
@@ -4434,16 +4365,16 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F143" s="0" t="s">
         <v>3</v>
@@ -4457,7 +4388,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>1</v>
@@ -4466,10 +4397,10 @@
         <v>4.3</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>3</v>
@@ -4483,19 +4414,19 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G145" s="0" t="s">
         <v>4</v>
@@ -4509,7 +4440,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2</v>
@@ -4518,10 +4449,10 @@
         <v>3.8</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F146" s="0" t="s">
         <v>3</v>
@@ -4535,7 +4466,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>4.6</v>
@@ -4544,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G147" s="0" t="s">
         <v>3</v>
@@ -4561,19 +4492,19 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>3</v>
@@ -4590,7 +4521,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>1</v>
@@ -4599,13 +4530,13 @@
         <v>4.5</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>3</v>
@@ -4619,7 +4550,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>2</v>
@@ -4628,13 +4559,13 @@
         <v>3.5</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G150" s="0" t="s">
         <v>3</v>
@@ -4648,7 +4579,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2</v>
@@ -4657,10 +4588,10 @@
         <v>4.2</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F151" s="0" t="s">
         <v>3</v>
@@ -4674,19 +4605,19 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G152" s="0" t="s">
         <v>4</v>
@@ -4700,7 +4631,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>1</v>
@@ -4709,10 +4640,10 @@
         <v>3.8</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F153" s="0" t="s">
         <v>3</v>
@@ -4726,7 +4657,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>3</v>
@@ -4735,10 +4666,10 @@
         <v>4.9</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>3</v>
@@ -4752,16 +4683,16 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>3</v>
@@ -4778,7 +4709,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>1</v>
@@ -4787,13 +4718,13 @@
         <v>2.9</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G156" s="0" t="s">
         <v>3</v>
@@ -4807,7 +4738,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>1</v>
@@ -4816,10 +4747,10 @@
         <v>3.7</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>3</v>
@@ -4833,13 +4764,13 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E158" s="0" t="s">
         <v>5</v>
@@ -4850,16 +4781,16 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F159" s="0" t="s">
         <v>3</v>
@@ -4873,7 +4804,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>1</v>
@@ -4882,10 +4813,10 @@
         <v>3.7</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F160" s="0" t="s">
         <v>3</v>
@@ -4899,7 +4830,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>2</v>
@@ -4908,10 +4839,10 @@
         <v>4.2</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>3</v>
@@ -4925,7 +4856,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2</v>
@@ -4934,10 +4865,10 @@
         <v>4.2</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F162" s="0" t="s">
         <v>3</v>
@@ -4951,7 +4882,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>1</v>
@@ -4960,10 +4891,10 @@
         <v>4</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>3</v>
@@ -4980,19 +4911,19 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>4.3</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G164" s="0" t="s">
         <v>3</v>
@@ -5006,13 +4937,13 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E165" s="0" t="s">
         <v>5</v>
@@ -5023,19 +4954,19 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>4</v>
@@ -5049,7 +4980,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>1</v>
@@ -5058,13 +4989,13 @@
         <v>3.6</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G167" s="0" t="s">
         <v>3</v>
@@ -5078,13 +5009,13 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>4.8</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E168" s="0" t="s">
         <v>5</v>
@@ -5095,13 +5026,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>5</v>
@@ -5112,13 +5040,13 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E170" s="0" t="s">
         <v>5</v>
@@ -5129,13 +5057,13 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>4.8</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E171" s="0" t="s">
         <v>5</v>
@@ -5146,19 +5074,19 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G172" s="0" t="s">
         <v>4</v>
@@ -5172,13 +5100,13 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E173" s="0" t="s">
         <v>5</v>
@@ -5189,13 +5117,13 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>5</v>
@@ -5206,13 +5134,10 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E175" s="0" t="s">
         <v>4</v>
@@ -5226,13 +5151,13 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E176" s="0" t="s">
         <v>5</v>
@@ -5243,13 +5168,13 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>3.9</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E177" s="0" t="s">
         <v>5</v>
@@ -5260,13 +5185,13 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>4.3</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E178" s="0" t="s">
         <v>5</v>
@@ -5277,13 +5202,13 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>4.1</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E179" s="0" t="s">
         <v>5</v>
@@ -5294,13 +5219,13 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E180" s="0" t="s">
         <v>5</v>
@@ -5311,13 +5236,13 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>5</v>
@@ -5328,13 +5253,13 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E182" s="0" t="s">
         <v>5</v>
@@ -5345,13 +5270,10 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C183" s="0" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E183" s="0" t="s">
         <v>5</v>
@@ -5362,13 +5284,13 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E184" s="0" t="s">
         <v>5</v>
@@ -5379,16 +5301,16 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F185" s="0" t="s">
         <v>5</v>
@@ -5399,13 +5321,13 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E186" s="0" t="s">
         <v>5</v>
@@ -5416,13 +5338,13 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E187" s="0" t="s">
         <v>5</v>
@@ -5433,13 +5355,13 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>5</v>
@@ -5450,13 +5372,13 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>5</v>
@@ -5467,13 +5389,13 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>4.3</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E190" s="0" t="s">
         <v>5</v>
@@ -5484,13 +5406,13 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>4.8</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>5</v>
@@ -5501,13 +5423,10 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C192" s="0" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E192" s="0" t="s">
         <v>5</v>
@@ -5518,7 +5437,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>3</v>
@@ -5527,7 +5446,7 @@
         <v>5</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E193" s="0" t="s">
         <v>3</v>
@@ -5544,16 +5463,16 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>4.1</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F194" s="0" t="s">
         <v>4</v>
@@ -5567,13 +5486,13 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E195" s="0" t="s">
         <v>4</v>
@@ -5587,7 +5506,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>2</v>
@@ -5596,7 +5515,7 @@
         <v>4.4</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E196" s="0" t="s">
         <v>3</v>
@@ -5610,13 +5529,10 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D197" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="E197" s="0" t="s">
         <v>5</v>
@@ -5627,13 +5543,13 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E198" s="0" t="s">
         <v>5</v>
@@ -5644,13 +5560,10 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C199" s="0" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E199" s="0" t="s">
         <v>4</v>
@@ -5664,7 +5577,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>1</v>
@@ -5673,7 +5586,7 @@
         <v>3.8</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E200" s="0" t="s">
         <v>3</v>
@@ -5687,13 +5600,13 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E201" s="0" t="s">
         <v>5</v>
@@ -5704,13 +5617,13 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>4.3</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E202" s="0" t="s">
         <v>3</v>
@@ -5724,16 +5637,16 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D203" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C203" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D203" s="0" t="s">
-        <v>233</v>
-      </c>
       <c r="E203" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F203" s="0" t="s">
         <v>4</v>
@@ -5747,13 +5660,10 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E204" s="0" t="s">
         <v>5</v>
@@ -5764,13 +5674,13 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E205" s="0" t="s">
         <v>4</v>
@@ -5784,7 +5694,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>1</v>
@@ -5793,7 +5703,7 @@
         <v>4.2</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E206" s="0" t="s">
         <v>3</v>
@@ -5807,7 +5717,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>2</v>
@@ -5816,7 +5726,7 @@
         <v>4.3</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E207" s="0" t="s">
         <v>3</v>
@@ -5830,7 +5740,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>1</v>
@@ -5839,7 +5749,7 @@
         <v>4.5</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E208" s="0" t="s">
         <v>3</v>
@@ -5853,7 +5763,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2</v>
@@ -5862,7 +5772,7 @@
         <v>4.4</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E209" s="0" t="s">
         <v>3</v>
@@ -5876,7 +5786,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2</v>
@@ -5885,7 +5795,7 @@
         <v>4.8</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E210" s="0" t="s">
         <v>3</v>
@@ -5899,7 +5809,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>1</v>
@@ -5908,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E211" s="0" t="s">
         <v>3</v>
@@ -5922,13 +5832,13 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>3.9</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E212" s="0" t="s">
         <v>5</v>
@@ -5939,7 +5849,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2</v>
@@ -5948,7 +5858,7 @@
         <v>4.3</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E213" s="0" t="s">
         <v>3</v>
@@ -5962,13 +5872,10 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E214" s="0" t="s">
         <v>5</v>
@@ -5979,7 +5886,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>2</v>
@@ -5988,7 +5895,7 @@
         <v>4.5</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>3</v>
@@ -6002,13 +5909,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C216" s="0" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E216" s="0" t="s">
         <v>5</v>
@@ -6019,13 +5923,10 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E217" s="0" t="s">
         <v>5</v>
@@ -6036,13 +5937,13 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>5</v>
@@ -6053,16 +5954,16 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F219" s="0" t="s">
         <v>4</v>
@@ -6076,13 +5977,13 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E220" s="0" t="s">
         <v>5</v>
@@ -6093,16 +5994,13 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F221" s="0" t="s">
         <v>5</v>
@@ -6113,13 +6011,13 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E222" s="0" t="s">
         <v>5</v>
@@ -6130,13 +6028,10 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E223" s="0" t="s">
         <v>5</v>
@@ -6147,7 +6042,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>1</v>
@@ -6156,7 +6051,7 @@
         <v>3.2</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>4</v>
@@ -6170,13 +6065,13 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E225" s="0" t="s">
         <v>5</v>
@@ -6187,16 +6082,16 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>4.8</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F226" s="0" t="s">
         <v>4</v>
@@ -6210,13 +6105,13 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E227" s="0" t="s">
         <v>5</v>
@@ -6227,13 +6122,13 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E228" s="0" t="s">
         <v>4</v>
@@ -6247,13 +6142,13 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E229" s="0" t="s">
         <v>4</v>
@@ -6267,13 +6162,13 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>2.8</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>5</v>
@@ -6284,13 +6179,13 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E231" s="0" t="s">
         <v>5</v>
@@ -6301,7 +6196,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>5</v>
@@ -6310,10 +6205,10 @@
         <v>4</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G232" s="0" t="s">
         <v>5</v>
@@ -6324,16 +6219,16 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F233" s="0" t="s">
         <v>4</v>
@@ -6347,13 +6242,13 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E234" s="0" t="s">
         <v>4</v>
@@ -6367,13 +6262,10 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E235" s="0" t="s">
         <v>4</v>
@@ -6387,13 +6279,10 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E236" s="0" t="s">
         <v>4</v>
@@ -6407,13 +6296,13 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E237" s="0" t="s">
         <v>5</v>
@@ -6424,7 +6313,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>3</v>
@@ -6433,7 +6322,7 @@
         <v>3.5</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E238" s="0" t="s">
         <v>4</v>
@@ -6447,13 +6336,10 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E239" s="0" t="s">
         <v>4</v>
@@ -6467,16 +6353,16 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F240" s="0" t="s">
         <v>4</v>
@@ -6490,13 +6376,13 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E241" s="0" t="s">
         <v>5</v>
@@ -6507,13 +6393,13 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E242" s="0" t="s">
         <v>4</v>
@@ -6527,13 +6413,13 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E243" s="0" t="s">
         <v>4</v>
@@ -6547,13 +6433,10 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E244" s="0" t="s">
         <v>4</v>
@@ -6567,13 +6450,10 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E245" s="0" t="s">
         <v>5</v>
@@ -6584,13 +6464,10 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E246" s="0" t="s">
         <v>5</v>
@@ -6601,13 +6478,13 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E247" s="0" t="s">
         <v>5</v>
@@ -6618,13 +6495,13 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E248" s="0" t="s">
         <v>5</v>
@@ -6635,13 +6512,10 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E249" s="0" t="s">
         <v>5</v>
@@ -6652,13 +6526,10 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E250" s="0" t="s">
         <v>5</v>
@@ -6669,13 +6540,13 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>4.1</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E251" s="0" t="s">
         <v>5</v>
@@ -6686,13 +6557,13 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>3.9</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E252" s="0" t="s">
         <v>5</v>
@@ -6703,13 +6574,13 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>4.1</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E253" s="0" t="s">
         <v>5</v>
@@ -6720,13 +6591,13 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C254" s="0" t="n">
         <v>4.1</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E254" s="0" t="s">
         <v>5</v>
@@ -6737,13 +6608,13 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E255" s="0" t="s">
         <v>5</v>
@@ -6754,13 +6625,10 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E256" s="0" t="s">
         <v>5</v>
@@ -6771,16 +6639,16 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>4.8</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F257" s="0" t="s">
         <v>5</v>
@@ -6791,13 +6659,13 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C258" s="0" t="n">
         <v>3.8</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E258" s="0" t="s">
         <v>5</v>
@@ -6808,13 +6676,10 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E259" s="0" t="s">
         <v>5</v>
@@ -6825,16 +6690,13 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F260" s="0" t="s">
         <v>5</v>
@@ -6845,16 +6707,16 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>4.8</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F261" s="0" t="s">
         <v>5</v>
@@ -6865,16 +6727,13 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E262" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="F262" s="0" t="s">
         <v>5</v>
@@ -6885,16 +6744,16 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F263" s="0" t="s">
         <v>5</v>
@@ -6905,13 +6764,13 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E264" s="0" t="s">
         <v>5</v>
@@ -6922,13 +6781,13 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E265" s="0" t="s">
         <v>5</v>
@@ -6939,13 +6798,13 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E266" s="0" t="s">
         <v>5</v>
@@ -6956,10 +6815,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>4</v>
@@ -6973,16 +6829,16 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>3.4</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F268" s="0" t="s">
         <v>5</v>
@@ -6993,16 +6849,16 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F269" s="0" t="s">
         <v>5</v>
@@ -7013,16 +6869,16 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F270" s="0" t="s">
         <v>5</v>
@@ -7033,13 +6889,13 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>4.6</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E271" s="0" t="s">
         <v>5</v>
@@ -7050,13 +6906,13 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E272" s="0" t="s">
         <v>5</v>
@@ -7067,13 +6923,13 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>4.2</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E273" s="0" t="s">
         <v>5</v>
@@ -7084,13 +6940,13 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C274" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E274" s="0" t="s">
         <v>5</v>
@@ -7101,16 +6957,13 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C275" s="0" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F275" s="0" t="s">
         <v>5</v>
@@ -7121,7 +6974,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C276" s="0" t="n">
         <v>4.4</v>
@@ -7138,16 +6991,13 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F277" s="0" t="s">
         <v>5</v>
@@ -7158,13 +7008,13 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C278" s="0" t="n">
         <v>2.4</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E278" s="0" t="s">
         <v>5</v>
@@ -7175,13 +7025,10 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E279" s="0" t="s">
         <v>5</v>
@@ -7192,13 +7039,13 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C280" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E280" s="0" t="s">
         <v>5</v>
@@ -7209,13 +7056,10 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C281" s="0" t="s">
-        <v>11</v>
+        <v>314</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E281" s="0" t="s">
         <v>5</v>
@@ -7226,13 +7070,13 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C282" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E282" s="0" t="s">
         <v>5</v>
@@ -7243,13 +7087,10 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="C283" s="0" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E283" s="0" t="s">
         <v>5</v>
@@ -7260,13 +7101,13 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C284" s="0" t="n">
         <v>4.7</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E284" s="0" t="s">
         <v>5</v>
@@ -7277,16 +7118,13 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C285" s="0" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F285" s="0" t="s">
         <v>5</v>
@@ -7297,13 +7135,10 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E286" s="0" t="s">
         <v>5</v>
@@ -7314,13 +7149,13 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C287" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E287" s="0" t="s">
         <v>5</v>
@@ -7331,13 +7166,13 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C288" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E288" s="0" t="s">
         <v>5</v>
@@ -7348,13 +7183,13 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C289" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E289" s="0" t="s">
         <v>5</v>
@@ -7365,13 +7200,10 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C290" s="0" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E290" s="0" t="s">
         <v>5</v>
@@ -7382,22 +7214,22 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C291" s="0" t="n">
         <v>2.4</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E291" s="0" t="s">
         <v>2</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G291" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H291" s="0" t="s">
         <v>3</v>
@@ -7414,13 +7246,10 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="C292" s="0" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E292" s="0" t="s">
         <v>5</v>

--- a/processing/datapoints.xlsx
+++ b/processing/datapoints.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="648">
   <si>
     <t xml:space="preserve">Steynberg Gallery</t>
   </si>
@@ -1952,6 +1952,9 @@
   </si>
   <si>
     <t xml:space="preserve">Julians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee &amp; T ea</t>
   </si>
   <si>
     <t xml:space="preserve">Tio Alberto's</t>
@@ -2058,8 +2061,8 @@
   </sheetPr>
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M44" activeCellId="0" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -12456,12 +12459,12 @@
         <v>0</v>
       </c>
       <c r="D523" s="0" t="s">
-        <v>8</v>
+        <v>644</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C524" s="0" t="n">
         <v>0</v>
@@ -12472,7 +12475,7 @@
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C525" s="0" t="n">
         <v>0</v>
@@ -12483,7 +12486,7 @@
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C526" s="0" t="n">
         <v>0</v>
